--- a/Teste Faturamento.xlsx
+++ b/Teste Faturamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucca.peixoto\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1624A29B-A5E4-4EDF-AF3D-61C404574840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAED63E3-9F31-4EFF-87D9-0D0E5DBE41F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E49487A5-60F5-451E-8CC0-EC090C6FFE99}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E49487A5-60F5-451E-8CC0-EC090C6FFE99}"/>
   </bookViews>
   <sheets>
     <sheet name="Teste" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -487,9 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -567,9 +564,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3"/>
     <xf numFmtId="44" fontId="1" fillId="9" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -587,7 +581,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Ênfase2" xfId="3" builtinId="36"/>
@@ -949,14 +948,14 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="AA2" sqref="AA2:AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -969,7 +968,7 @@
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -987,7 +986,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="51" t="s">
         <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -996,10 +995,10 @@
       <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1020,52 +1019,52 @@
       <c r="M1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="23" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1076,22 +1075,22 @@
       <c r="B2" s="5">
         <v>6300000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="50">
         <f>SUM(K2:K6)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
+        <v>10071948.34</v>
+      </c>
+      <c r="D2" s="6">
         <f>(C2/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
+        <v>83932902.833333328</v>
+      </c>
+      <c r="E2" s="7">
         <f>IFERROR(D2/B2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="34">
+        <v>13.322682989417988</v>
+      </c>
+      <c r="F2" s="33">
         <v>25</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="34">
         <v>3</v>
       </c>
       <c r="H2" t="s">
@@ -1100,21 +1099,21 @@
       <c r="I2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <f>SUM(Q10,Q9,Q2,Q17)</f>
         <v>1062606.44</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <f>SUM(R2,R9:R10,R20,R17)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="10">
+        <v>1870000</v>
+      </c>
+      <c r="L2" s="9">
         <f>(K2/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="11">
+        <v>15583333.333333334</v>
+      </c>
+      <c r="M2" s="10">
         <f>IFERROR(L2/J2,0)</f>
-        <v>0</v>
+        <v>14.665197524431845</v>
       </c>
       <c r="N2" t="s">
         <v>9</v>
@@ -1125,18 +1124,22 @@
       <c r="P2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="17">
         <v>509039.59</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="10">
+      <c r="R2" s="37">
+        <v>400000</v>
+      </c>
+      <c r="S2" s="18">
+        <v>0</v>
+      </c>
+      <c r="T2" s="9">
         <f>(R2/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="11">
+        <v>3333333.3333333335</v>
+      </c>
+      <c r="U2" s="10">
         <f t="shared" ref="U2:U14" si="0">IFERROR(T2/Q2,0)</f>
-        <v>0</v>
+        <v>6.5482791492373575</v>
       </c>
       <c r="V2" t="s">
         <v>9</v>
@@ -1144,47 +1147,51 @@
       <c r="W2" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="27">
+      <c r="Y2" s="26">
         <v>278034.96999999997</v>
       </c>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28">
+      <c r="Z2" s="27">
+        <v>226461.61</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="27">
         <f>(Z2/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="29">
+        <v>1887180.083333333</v>
+      </c>
+      <c r="AC2" s="28">
         <f>IFERROR(AB2/Y2,0)</f>
-        <v>0</v>
+        <v>6.7875637490252867</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <f>SUM(Q5,Q11,Q12,Q14,Q18)</f>
         <v>1291110.55</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <f>SUM(R5,R11,R12,R14,R18,R19)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
+        <v>2470000</v>
+      </c>
+      <c r="L3" s="9">
         <f>(K3/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
+        <v>20583333.333333336</v>
+      </c>
+      <c r="M3" s="10">
         <f>IFERROR(L3/J3,0)</f>
-        <v>0</v>
+        <v>15.942347720211361</v>
       </c>
       <c r="N3" t="s">
         <v>13</v>
@@ -1195,18 +1202,22 @@
       <c r="P3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="17">
         <v>112244.82</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="10">
+      <c r="R3" s="37">
+        <v>420000</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
         <f>(R3/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3500000</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" si="0"/>
+        <v>31.181839839023304</v>
       </c>
       <c r="V3" t="s">
         <v>9</v>
@@ -1217,44 +1228,48 @@
       <c r="X3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="27">
+      <c r="Y3" s="26">
         <v>359768.99</v>
       </c>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28">
+      <c r="Z3" s="27">
+        <v>233197.73</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="27">
         <f>(Z3/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="29">
+        <v>1943314.416666667</v>
+      </c>
+      <c r="AC3" s="28">
         <f t="shared" ref="AC3:AC10" si="1">IFERROR(AB3/Y3,0)</f>
-        <v>0</v>
+        <v>5.4015617540207312</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f>SUM(Q7,Q15:Q16,Q4,Q6,Q8)</f>
         <v>1675335.7400000002</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <f>SUM(R6:R8,R15:R16,R4,R21)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
+        <v>2840000</v>
+      </c>
+      <c r="L4" s="9">
         <f>(K4/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
+        <v>23666666.666666664</v>
+      </c>
+      <c r="M4" s="10">
         <f>IFERROR(L4/J4,0)</f>
-        <v>0</v>
+        <v>14.126521688522361</v>
       </c>
       <c r="N4" t="s">
         <v>21</v>
@@ -1265,18 +1280,22 @@
       <c r="P4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="17">
         <v>77301.78</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="10">
+      <c r="R4" s="37">
+        <v>430000</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
+      <c r="T4" s="9">
         <f>(R4/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3583333.3333333335</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" si="0"/>
+        <v>46.355120584976618</v>
       </c>
       <c r="V4" t="s">
         <v>9</v>
@@ -1287,66 +1306,74 @@
       <c r="X4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="27">
+      <c r="Y4" s="26">
         <v>309362.19</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28">
+      <c r="Z4" s="27">
+        <v>344774.33</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="27">
         <f>(Z4/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2873119.416666667</v>
+      </c>
+      <c r="AC4" s="28">
+        <f t="shared" si="1"/>
+        <v>9.28723518755368</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <f>SUM(Q3:Q3,Q13,Y10)</f>
         <v>205818.47</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <f>SUM(R3:R3,R13,Z10,R23)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
+        <v>967093.47</v>
+      </c>
+      <c r="L5" s="9">
         <f>(K5/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
+        <v>8059112.25</v>
+      </c>
+      <c r="M5" s="10">
         <f>IFERROR(L5/J5,0)</f>
-        <v>0</v>
+        <v>39.15640928629972</v>
       </c>
       <c r="N5" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="17">
         <v>233605.43</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="10">
+      <c r="R5" s="37">
+        <v>440000</v>
+      </c>
+      <c r="S5" s="18">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
         <f>(R5/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3666666.6666666665</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="0"/>
+        <v>15.695982181007807</v>
       </c>
       <c r="V5" t="s">
         <v>9</v>
@@ -1357,44 +1384,48 @@
       <c r="X5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" s="27">
+      <c r="Y5" s="26">
         <v>106150.22</v>
       </c>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28">
+      <c r="Z5" s="27">
+        <v>123622.36</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="27">
         <f>(Z5/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="29">
+        <v>1030186.3333333333</v>
+      </c>
+      <c r="AC5" s="28">
         <f>IFERROR(AB5/Y5,0)</f>
-        <v>0</v>
+        <v>9.7049853814088483</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <f>SUM(Y2:Y9)</f>
         <v>2015141.99</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <f>SUM(Z2:Z9)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="10">
+        <v>1924854.87</v>
+      </c>
+      <c r="L6" s="9">
         <f>(K6/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
+        <v>16040457.25</v>
+      </c>
+      <c r="M6" s="10">
         <f>IFERROR(L6/J6,0)</f>
-        <v>0</v>
+        <v>7.9599637790287918</v>
       </c>
       <c r="N6" t="s">
         <v>9</v>
@@ -1405,18 +1436,22 @@
       <c r="P6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="17">
         <v>240901.6</v>
       </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="10">
+      <c r="R6" s="37">
+        <v>450000</v>
+      </c>
+      <c r="S6" s="18">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
         <f>(R6/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3750000</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="0"/>
+        <v>15.566521766563609</v>
       </c>
       <c r="V6" t="s">
         <v>9</v>
@@ -1427,23 +1462,27 @@
       <c r="X6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="27">
+      <c r="Y6" s="26">
         <v>253882.6</v>
       </c>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28">
+      <c r="Z6" s="27">
+        <v>264703.65000000002</v>
+      </c>
+      <c r="AA6" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="27">
         <f>(Z6/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2205863.75</v>
+      </c>
+      <c r="AC6" s="28">
+        <f t="shared" si="1"/>
+        <v>8.6885188272059608</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="N7" t="s">
         <v>9</v>
       </c>
@@ -1453,18 +1492,22 @@
       <c r="P7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <v>375146.39</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="10">
+      <c r="R7" s="37">
+        <v>460000</v>
+      </c>
+      <c r="S7" s="18">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
         <f>(R7/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3833333.3333333335</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="0"/>
+        <v>10.218233296429517</v>
       </c>
       <c r="V7" t="s">
         <v>9</v>
@@ -1475,23 +1518,27 @@
       <c r="X7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="27">
+      <c r="Y7" s="26">
         <v>235058.47</v>
       </c>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28">
+      <c r="Z7" s="27">
+        <v>236058.57</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="27">
         <f>(Z7/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1967154.75</v>
+      </c>
+      <c r="AC7" s="28">
+        <f t="shared" si="1"/>
+        <v>8.3687890506562042</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="N8" t="s">
         <v>9</v>
       </c>
@@ -1501,18 +1548,22 @@
       <c r="P8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <v>450561.05</v>
       </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="10">
+      <c r="R8" s="37">
+        <v>460000</v>
+      </c>
+      <c r="S8" s="18">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
         <f>(R8/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3833333.3333333335</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="0"/>
+        <v>8.5079110440934329</v>
       </c>
       <c r="V8" t="s">
         <v>9</v>
@@ -1523,23 +1574,27 @@
       <c r="X8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="27">
+      <c r="Y8" s="26">
         <v>263862.83</v>
       </c>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28">
+      <c r="Z8" s="27">
+        <v>245292.27</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="27">
         <f>(Z8/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2044102.25</v>
+      </c>
+      <c r="AC8" s="28">
+        <f t="shared" si="1"/>
+        <v>7.7468366802554183</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="N9" t="s">
         <v>9</v>
       </c>
@@ -1549,18 +1604,22 @@
       <c r="P9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <v>149058.19</v>
       </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="10">
+      <c r="R9" s="37">
+        <v>470000</v>
+      </c>
+      <c r="S9" s="18">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9">
         <f>(R9/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3916666.6666666665</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="0"/>
+        <v>26.276091683836135</v>
       </c>
       <c r="V9" t="s">
         <v>9</v>
@@ -1571,23 +1630,27 @@
       <c r="X9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="Y9" s="26">
         <v>209021.72</v>
       </c>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28">
+      <c r="Z9" s="27">
+        <v>250744.35</v>
+      </c>
+      <c r="AA9" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="27">
         <f>(Z9/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2089536.25</v>
+      </c>
+      <c r="AC9" s="28">
+        <f t="shared" si="1"/>
+        <v>9.9967422045900296</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="N10" t="s">
         <v>9</v>
       </c>
@@ -1597,18 +1660,22 @@
       <c r="P10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <v>230480.73</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="10">
+      <c r="R10" s="37">
+        <v>480000</v>
+      </c>
+      <c r="S10" s="18">
+        <v>0</v>
+      </c>
+      <c r="T10" s="9">
         <f>(R10/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000000</v>
+      </c>
+      <c r="U10" s="10">
+        <f t="shared" si="0"/>
+        <v>17.355030071277543</v>
       </c>
       <c r="V10" t="s">
         <v>13</v>
@@ -1616,26 +1683,30 @@
       <c r="W10" t="s">
         <v>14</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="12">
         <v>51752.1</v>
       </c>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="13">
+      <c r="Z10" s="27">
+        <v>37093.47</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12">
         <f>(Z10/G2) * F2</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>309112.25</v>
+      </c>
+      <c r="AC10" s="28">
+        <f t="shared" si="1"/>
+        <v>5.9729411946568352</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="N11" t="s">
         <v>9</v>
       </c>
@@ -1645,24 +1716,28 @@
       <c r="P11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="17">
         <v>285502.65000000002</v>
       </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="10">
+      <c r="R11" s="37">
+        <v>490000</v>
+      </c>
+      <c r="S11" s="18">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9">
         <f>(R11/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4083333.3333333335</v>
+      </c>
+      <c r="U11" s="10">
+        <f t="shared" si="0"/>
+        <v>14.30226070873014</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="K12" s="30"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="K12" s="29"/>
       <c r="N12" t="s">
         <v>9</v>
       </c>
@@ -1672,24 +1747,28 @@
       <c r="P12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="17">
         <v>268303</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="10">
+      <c r="R12" s="37">
+        <v>500000</v>
+      </c>
+      <c r="S12" s="18">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9">
         <f>(R12/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4166666.6666666665</v>
+      </c>
+      <c r="U12" s="10">
+        <f t="shared" si="0"/>
+        <v>15.529705842523812</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="K13" s="30"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="K13" s="29"/>
       <c r="N13" t="s">
         <v>13</v>
       </c>
@@ -1699,23 +1778,27 @@
       <c r="P13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="17">
         <v>41821.550000000003</v>
       </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="10">
+      <c r="R13" s="37">
+        <v>510000</v>
+      </c>
+      <c r="S13" s="18">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
         <f>(R13/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
+        <v>4250000</v>
+      </c>
+      <c r="U13" s="10">
         <f>IFERROR(T13/Q13,0)</f>
-        <v>0</v>
+        <v>101.62224977314327</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
       <c r="N14" t="s">
         <v>9</v>
       </c>
@@ -1725,23 +1808,27 @@
       <c r="P14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="17">
         <v>297395.43</v>
       </c>
-      <c r="R14" s="38"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="10">
+      <c r="R14" s="37">
+        <v>520000</v>
+      </c>
+      <c r="S14" s="18">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
         <f>(R14/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4333333.333333334</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" si="0"/>
+        <v>14.570947957516813</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
       <c r="N15" t="s">
         <v>9</v>
       </c>
@@ -1751,23 +1838,27 @@
       <c r="P15" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="20">
         <v>212339.41</v>
       </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="10">
+      <c r="R15" s="37">
+        <v>520000</v>
+      </c>
+      <c r="S15" s="18">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
         <f>(R15/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="23">
+        <v>4333333.333333334</v>
+      </c>
+      <c r="U15" s="22">
         <f>IFERROR(T15/Q15,0)</f>
-        <v>0</v>
+        <v>20.407579230503345</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="N16" t="s">
         <v>9</v>
       </c>
@@ -1777,18 +1868,22 @@
       <c r="P16" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="20">
         <v>319085.51</v>
       </c>
-      <c r="R16" s="38"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="10">
+      <c r="R16" s="37">
+        <v>520000</v>
+      </c>
+      <c r="S16" s="18">
+        <v>0</v>
+      </c>
+      <c r="T16" s="9">
         <f>(R16/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="23">
+        <v>4333333.333333334</v>
+      </c>
+      <c r="U16" s="22">
         <f>IFERROR(T16/Q16,0)</f>
-        <v>0</v>
+        <v>13.580476698341251</v>
       </c>
     </row>
     <row r="17" spans="14:21" x14ac:dyDescent="0.25">
@@ -1801,18 +1896,22 @@
       <c r="P17" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="20">
         <v>174027.93</v>
       </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="10">
+      <c r="R17" s="37">
+        <v>520000</v>
+      </c>
+      <c r="S17" s="18">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9">
         <f>(R17/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="23">
+        <v>4333333.333333334</v>
+      </c>
+      <c r="U17" s="22">
         <f>IFERROR(T17/Q17,0)</f>
-        <v>0</v>
+        <v>24.900217645140835</v>
       </c>
     </row>
     <row r="18" spans="14:21" x14ac:dyDescent="0.25">
@@ -1825,25 +1924,29 @@
       <c r="P18" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="20">
         <v>206304.04</v>
       </c>
-      <c r="R18" s="52"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="39">
+      <c r="R18" s="37">
+        <v>520000</v>
+      </c>
+      <c r="S18" s="18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="38">
         <f>(R18/$G2)*$F2</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="23">
+        <v>4333333.333333334</v>
+      </c>
+      <c r="U18" s="22">
         <f>IFERROR(T18/Q18,0)</f>
-        <v>0</v>
+        <v>21.004597550941483</v>
       </c>
     </row>
     <row r="22" spans="14:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S22" s="30"/>
+      <c r="S22" s="29"/>
     </row>
     <row r="23" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="S23" s="32"/>
+      <c r="S23" s="31"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M6 U2:U18">
@@ -1865,7 +1968,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G27"/>
+      <selection activeCell="C19" sqref="C19:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,22 +1980,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="48" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1900,20 +2003,20 @@
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>409020.28</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="37">
         <v>471783.45</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="46">
         <f>+C2/$C$29</f>
         <v>8.0799935017994914E-2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="38">
         <f>+D2*$F$29</f>
         <v>509039.59061336797</v>
       </c>
@@ -1922,20 +2025,20 @@
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>93468.21</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>104029.72</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="46">
         <f t="shared" ref="D3:D27" si="0">+C3/$C$29</f>
         <v>1.7816637306671539E-2</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <f t="shared" ref="G3:G27" si="1">+D3*$F$29</f>
         <v>112244.81503203069</v>
       </c>
@@ -1944,42 +2047,42 @@
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>68443.94</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>71644.13</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="46">
         <f t="shared" si="0"/>
         <v>1.2270123185586058E-2</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <f t="shared" si="1"/>
         <v>77301.776069192158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>274170.09000000003</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>216508.06</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="46">
         <f t="shared" si="0"/>
         <v>3.708022648711426E-2</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <f t="shared" si="1"/>
         <v>233605.42686881984</v>
       </c>
@@ -1988,20 +2091,20 @@
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>213670.02</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>223270.23</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="46">
         <f t="shared" si="0"/>
         <v>3.8238348707341857E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <f t="shared" si="1"/>
         <v>240901.59685625369</v>
       </c>
@@ -2010,20 +2113,20 @@
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>406950.16</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>347689.77</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="46">
         <f t="shared" si="0"/>
         <v>5.9547046049244837E-2</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <f t="shared" si="1"/>
         <v>375146.39011024247</v>
       </c>
@@ -2032,20 +2135,20 @@
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>427264.27</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>417584.9</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="46">
         <f t="shared" si="0"/>
         <v>7.1517626963166908E-2</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <f t="shared" si="1"/>
         <v>450561.04986795154</v>
       </c>
@@ -2054,20 +2157,20 @@
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>126634.43</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>138148.76</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="46">
         <f t="shared" si="0"/>
         <v>2.3660030530567734E-2</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <f t="shared" si="1"/>
         <v>149058.19234257672</v>
       </c>
@@ -2076,20 +2179,20 @@
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>236410.11</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>213612.06</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="46">
         <f t="shared" si="0"/>
         <v>3.6584243400356736E-2</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <f t="shared" si="1"/>
         <v>230480.73342224743</v>
       </c>
@@ -2098,20 +2201,20 @@
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>262741.15000000002</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>264606.96999999997</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="46">
         <f t="shared" si="0"/>
         <v>4.5317880441351911E-2</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <f t="shared" si="1"/>
         <v>285502.64678051707</v>
       </c>
@@ -2120,20 +2223,20 @@
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>245752.23</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>248666.15</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="46">
         <f t="shared" si="0"/>
         <v>4.2587777848449276E-2</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <f t="shared" si="1"/>
         <v>268303.00044523046</v>
       </c>
@@ -2142,20 +2245,20 @@
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>61149.25</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>38760.67</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="46">
         <f t="shared" si="0"/>
         <v>6.6383414196787638E-3</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <f t="shared" si="1"/>
         <v>41821.55094397621</v>
       </c>
@@ -2164,20 +2267,20 @@
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>313310.19</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <v>275629.33</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="46">
         <f t="shared" si="0"/>
         <v>4.7205623582288608E-2</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <f t="shared" si="1"/>
         <v>297395.42856841825</v>
       </c>
@@ -2186,20 +2289,20 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>167888.82</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <v>196798.48</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="46">
         <f t="shared" si="0"/>
         <v>3.3704667672509861E-2</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <f t="shared" si="1"/>
         <v>212339.40633681213</v>
       </c>
@@ -2208,20 +2311,20 @@
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>279747.43</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <v>295731.93</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="46">
         <f t="shared" si="0"/>
         <v>5.0648492919253996E-2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="38">
         <f t="shared" si="1"/>
         <v>319085.50539130019</v>
       </c>
@@ -2230,20 +2333,20 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>166834.78</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="37">
         <v>161290.99</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="46">
         <f t="shared" si="0"/>
         <v>2.7623481728721231E-2</v>
       </c>
       <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <f t="shared" si="1"/>
         <v>174027.93489094375</v>
       </c>
@@ -2252,42 +2355,42 @@
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>199650.55</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>191204.84</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="46">
         <f t="shared" si="0"/>
         <v>3.2746673600199658E-2</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <f t="shared" si="1"/>
         <v>206304.04368125784</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>278034.96999999997</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>226461.61</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="46">
         <f t="shared" si="0"/>
         <v>3.8784920013770104E-2</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="38">
         <f t="shared" si="1"/>
         <v>244344.99608675166</v>
       </c>
@@ -2296,20 +2399,20 @@
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>359768.99</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>233197.73</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="46">
         <f t="shared" si="0"/>
         <v>3.9938580783925176E-2</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <f t="shared" si="1"/>
         <v>251613.05893872862</v>
       </c>
@@ -2318,20 +2421,20 @@
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>309362.19</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>344774.33</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="46">
         <f t="shared" si="0"/>
         <v>5.9047733573258529E-2</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <f t="shared" si="1"/>
         <v>372000.72151152871</v>
       </c>
@@ -2340,20 +2443,20 @@
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>106150.22</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <v>123622.36</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="46">
         <f t="shared" si="0"/>
         <v>2.1172168406439807E-2</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="38">
         <f t="shared" si="1"/>
         <v>133384.66096057079</v>
       </c>
@@ -2362,20 +2465,20 @@
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>253882.6</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="27">
         <v>264703.65000000002</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="46">
         <f t="shared" si="0"/>
         <v>4.533443832975928E-2</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="38">
         <f t="shared" si="1"/>
         <v>285606.96147748345</v>
       </c>
@@ -2384,20 +2487,20 @@
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>235058.47</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>236058.57</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="46">
         <f t="shared" si="0"/>
         <v>4.0428542197571374E-2</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="38">
         <f t="shared" si="1"/>
         <v>254699.81584469965</v>
       </c>
@@ -2406,20 +2509,20 @@
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>263862.83</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <v>245292.27</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="46">
         <f t="shared" si="0"/>
         <v>4.2009950701781637E-2</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="38">
         <f t="shared" si="1"/>
         <v>264662.68942122429</v>
       </c>
@@ -2428,64 +2531,64 @@
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>209021.72</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>250744.35</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="46">
         <f t="shared" si="0"/>
         <v>4.2943700517958767E-2</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="38">
         <f t="shared" si="1"/>
         <v>270545.31326314021</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>51752.1</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <v>37093.47</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="46">
         <f t="shared" si="0"/>
         <v>6.3528086150371407E-3</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="38">
         <f t="shared" si="1"/>
         <v>40022.694274733985</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>6300000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>5838908.7800000003</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>6300000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="49"/>
+      <c r="F30" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2509,15 +2612,15 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="41" t="s">
+    <row r="1" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2525,24 +2628,24 @@
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="41">
         <v>282981.19</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="37">
         <v>364324.58</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="45">
         <f>MEDIAN(B2:C2)</f>
         <v>323652.88500000001</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="46">
         <f>+D2/$D$29</f>
         <v>6.8170046380641003E-2</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <f>+E2*$F$31</f>
         <v>409020.27828384604</v>
       </c>
@@ -2551,24 +2654,24 @@
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="41">
         <v>59582.74</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>79435.27</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="45">
         <f t="shared" ref="D3:D27" si="0">MEDIAN(B3:C3)</f>
         <v>69509.005000000005</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <f t="shared" ref="E3:E28" si="1">+D3/$D$29</f>
         <v>1.4640475380660389E-2</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <f t="shared" ref="H3:H28" si="2">+E3*$F$31</f>
         <v>87842.852283962333</v>
       </c>
@@ -2577,50 +2680,50 @@
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="41">
         <v>40250.339999999997</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>68067.42</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="45">
         <f t="shared" si="0"/>
         <v>54158.879999999997</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <f t="shared" si="1"/>
         <v>1.1407324119862458E-2</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <f t="shared" si="2"/>
         <v>68443.944719174746</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="42">
         <v>202775.76</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>219249.98</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="45">
         <f t="shared" si="0"/>
         <v>211012.87</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <f t="shared" si="1"/>
         <v>4.4445014401191481E-2</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <f t="shared" si="2"/>
         <v>266670.08640714886</v>
       </c>
@@ -2629,24 +2732,24 @@
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="41">
         <v>160934</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>177215.1</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <f t="shared" si="0"/>
         <v>169074.55</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <f t="shared" si="1"/>
         <v>3.5611670556516144E-2</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <f t="shared" si="2"/>
         <v>213670.02333909686</v>
       </c>
@@ -2655,24 +2758,24 @@
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="41">
         <v>297002.83</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>347026.82</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="45">
         <f t="shared" si="0"/>
         <v>322014.82500000001</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="46">
         <f t="shared" si="1"/>
         <v>6.7825026665540147E-2</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <f t="shared" si="2"/>
         <v>406950.1599932409</v>
       </c>
@@ -2681,24 +2784,24 @@
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="41">
         <v>283114.93</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>393063.35</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <f t="shared" si="0"/>
         <v>338089.14</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <f t="shared" si="1"/>
         <v>7.1210711916227881E-2</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <f t="shared" si="2"/>
         <v>427264.2714973673</v>
       </c>
@@ -2707,24 +2810,24 @@
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="41">
         <v>71683.649999999994</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>114484.35</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="45">
         <f t="shared" si="0"/>
         <v>93084</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="46">
         <f t="shared" si="1"/>
         <v>1.9606006593439102E-2</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <f t="shared" si="2"/>
         <v>117636.03956063461</v>
       </c>
@@ -2733,24 +2836,24 @@
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="41">
         <v>161593.37</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>212543.65</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <f t="shared" si="0"/>
         <v>187068.51</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="46">
         <f t="shared" si="1"/>
         <v>3.9401684934949388E-2</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <f t="shared" si="2"/>
         <v>236410.10960969632</v>
       </c>
@@ -2759,24 +2862,24 @@
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="41">
         <v>237983.01</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>225302.18</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="45">
         <f t="shared" si="0"/>
         <v>231642.595</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="46">
         <f t="shared" si="1"/>
         <v>4.8790192137116405E-2</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <f t="shared" si="2"/>
         <v>292741.15282269841</v>
       </c>
@@ -2785,25 +2888,25 @@
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="41">
         <f>81972.71+70013.19</f>
         <v>151985.90000000002</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>225066.41</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="45">
         <f t="shared" si="0"/>
         <v>188526.15500000003</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="46">
         <f t="shared" si="1"/>
         <v>3.9708704374175181E-2</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <f t="shared" si="2"/>
         <v>238252.22624505108</v>
       </c>
@@ -2812,24 +2915,24 @@
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="41">
         <v>42337.31</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>49827.79</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="45">
         <f t="shared" si="0"/>
         <v>46082.55</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <f t="shared" si="1"/>
         <v>9.706230707129981E-3</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <f t="shared" si="2"/>
         <v>58237.384242779888</v>
       </c>
@@ -2838,24 +2941,24 @@
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="41">
         <v>220828.11</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <v>263139.82</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="45">
         <f t="shared" si="0"/>
         <v>241983.965</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <f t="shared" si="1"/>
         <v>5.0968364201114447E-2</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <f t="shared" si="2"/>
         <v>305810.18520668667</v>
       </c>
@@ -2864,24 +2967,24 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>126533.39</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <v>139163.47</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="45">
         <f t="shared" si="0"/>
         <v>132848.43</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="46">
         <f t="shared" si="1"/>
         <v>2.7981470440763535E-2</v>
       </c>
       <c r="G15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <f t="shared" si="2"/>
         <v>167888.8226445812</v>
       </c>
@@ -2890,24 +2993,24 @@
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>174336.17</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <v>268385.46999999997</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="45">
         <f t="shared" si="0"/>
         <v>221360.82</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="46">
         <f t="shared" si="1"/>
         <v>4.6624572391056322E-2</v>
       </c>
       <c r="G16" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="21">
         <f t="shared" si="2"/>
         <v>279747.43434633792</v>
       </c>
@@ -2916,24 +3019,24 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>113157.25</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="37">
         <v>150871.5</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="45">
         <f t="shared" si="0"/>
         <v>132014.375</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="46">
         <f t="shared" si="1"/>
         <v>2.78057959120659E-2</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <f t="shared" si="2"/>
         <v>166834.77547239538</v>
       </c>
@@ -2942,50 +3045,50 @@
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>137376.89000000001</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>166716</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="45">
         <f t="shared" si="0"/>
         <v>152046.44500000001</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="46">
         <f t="shared" si="1"/>
         <v>3.2025091349522757E-2</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="21">
         <f t="shared" si="2"/>
         <v>192150.54809713655</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="43">
         <v>254077.24</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>185934.29</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="45">
         <f t="shared" si="0"/>
         <v>220005.76500000001</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="46">
         <f t="shared" si="1"/>
         <v>4.633916117898472E-2</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
         <f t="shared" si="2"/>
         <v>278034.96707390831</v>
       </c>
@@ -2994,24 +3097,24 @@
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="41">
         <v>357712.18</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>211649.67</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="45">
         <f t="shared" si="0"/>
         <v>284680.92499999999</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="46">
         <f t="shared" si="1"/>
         <v>5.9961498136912275E-2</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="21">
         <f t="shared" si="2"/>
         <v>359768.98882147367</v>
       </c>
@@ -3020,24 +3123,24 @@
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="41">
         <v>235041.5</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>254547.75</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="45">
         <f t="shared" si="0"/>
         <v>244794.625</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="46">
         <f t="shared" si="1"/>
         <v>5.1560365173267723E-2</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
         <f t="shared" si="2"/>
         <v>309362.19103960635</v>
       </c>
@@ -3046,24 +3149,24 @@
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="41">
         <v>89319.93</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <v>78670.880000000005</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="45">
         <f t="shared" si="0"/>
         <v>83995.404999999999</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="46">
         <f t="shared" si="1"/>
         <v>1.7691702808738212E-2</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="21">
         <f t="shared" si="2"/>
         <v>106150.21685242926</v>
       </c>
@@ -3072,24 +3175,24 @@
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="41">
         <v>197098.61</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="27">
         <v>204689.96</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="45">
         <f t="shared" si="0"/>
         <v>200894.28499999997</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="46">
         <f t="shared" si="1"/>
         <v>4.2313766880390118E-2</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="21">
         <f t="shared" si="2"/>
         <v>253882.60128234071</v>
       </c>
@@ -3098,24 +3201,24 @@
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="41">
         <v>225750.62</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>146247.32999999999</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="45">
         <f t="shared" si="0"/>
         <v>185998.97499999998</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="46">
         <f t="shared" si="1"/>
         <v>3.9176411952891094E-2</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="21">
         <f t="shared" si="2"/>
         <v>235058.47171734658</v>
       </c>
@@ -3124,24 +3227,24 @@
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="41">
         <v>193932.79</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <v>223650.26</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="45">
         <f t="shared" si="0"/>
         <v>208791.52500000002</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="46">
         <f t="shared" si="1"/>
         <v>4.3977139098064173E-2</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="21">
         <f t="shared" si="2"/>
         <v>263862.83458838501</v>
       </c>
@@ -3150,84 +3253,84 @@
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="41">
         <v>134166.89000000001</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>196625.92000000001</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="45">
         <f t="shared" si="0"/>
         <v>165396.40500000003</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="46">
         <f t="shared" si="1"/>
         <v>3.4836953794004602E-2</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="21">
         <f t="shared" si="2"/>
         <v>209021.72276402763</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="44">
         <v>33263.919999999998</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <v>44737.64</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="45">
         <f t="shared" si="0"/>
         <v>39000.78</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="46">
         <f t="shared" si="1"/>
         <v>8.2146185147744816E-3</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="21">
         <f t="shared" si="2"/>
         <v>49287.711088646887</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48">
+      <c r="B28" s="29"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I28" s="39">
+      <c r="I28" s="38">
         <f>SUM(H2:H27)</f>
         <v>6000000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <f>SUM(D2:D28)</f>
         <v>4747728.6900000004</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="46">
         <f>SUM(E2:E28)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="21">
         <f t="shared" ref="H29" si="3">+E29*6000000</f>
         <v>6000000.0000000009</v>
       </c>
@@ -3258,7 +3361,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
@@ -3269,7 +3372,7 @@
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>409020.28</v>
       </c>
     </row>
@@ -3277,24 +3380,24 @@
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>93468.21</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>68443.94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>274170.09000000003</v>
       </c>
     </row>
@@ -3302,7 +3405,7 @@
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>213670.02</v>
       </c>
     </row>
@@ -3310,7 +3413,7 @@
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>406950.16</v>
       </c>
     </row>
@@ -3318,7 +3421,7 @@
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>427264.27</v>
       </c>
     </row>
@@ -3326,7 +3429,7 @@
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>126634.43</v>
       </c>
     </row>
@@ -3334,7 +3437,7 @@
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>236410.11</v>
       </c>
     </row>
@@ -3342,7 +3445,7 @@
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>262741.15000000002</v>
       </c>
     </row>
@@ -3350,7 +3453,7 @@
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>245752.23</v>
       </c>
     </row>
@@ -3358,16 +3461,16 @@
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>61149.25</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>313310.19</v>
       </c>
     </row>
@@ -3375,7 +3478,7 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>167888.82</v>
       </c>
     </row>
@@ -3383,7 +3486,7 @@
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>279747.43</v>
       </c>
     </row>
@@ -3391,7 +3494,7 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>166834.78</v>
       </c>
     </row>
@@ -3399,15 +3502,15 @@
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>199650.55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>278034.96999999997</v>
       </c>
     </row>
@@ -3415,7 +3518,7 @@
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>359768.99</v>
       </c>
     </row>
@@ -3423,7 +3526,7 @@
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>309362.19</v>
       </c>
     </row>
@@ -3431,7 +3534,7 @@
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>106150.22</v>
       </c>
     </row>
@@ -3439,7 +3542,7 @@
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>253882.6</v>
       </c>
     </row>
@@ -3447,7 +3550,7 @@
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>235058.47</v>
       </c>
     </row>
@@ -3455,7 +3558,7 @@
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>263862.83</v>
       </c>
     </row>
@@ -3463,20 +3566,20 @@
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>209021.72</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>51752.1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>6010633.4000000004</v>
       </c>
     </row>

--- a/Teste Faturamento.xlsx
+++ b/Teste Faturamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucca.peixoto\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAED63E3-9F31-4EFF-87D9-0D0E5DBE41F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04C3583-76D3-426C-8DE5-EC8A459899EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E49487A5-60F5-451E-8CC0-EC090C6FFE99}"/>
   </bookViews>
@@ -581,7 +581,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,7 +948,7 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AA10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>6300000</v>
+        <v>11100000</v>
       </c>
       <c r="C2" s="50">
         <f>SUM(K2:K6)</f>
@@ -1081,17 +1081,17 @@
       </c>
       <c r="D2" s="6">
         <f>(C2/G2) * F2</f>
-        <v>83932902.833333328</v>
+        <v>12589935.425000001</v>
       </c>
       <c r="E2" s="7">
         <f>IFERROR(D2/B2,0)</f>
-        <v>13.322682989417988</v>
+        <v>1.1342284166666667</v>
       </c>
       <c r="F2" s="33">
         <v>25</v>
       </c>
       <c r="G2" s="34">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -1109,11 +1109,11 @@
       </c>
       <c r="L2" s="9">
         <f>(K2/G2) * F2</f>
-        <v>15583333.333333334</v>
+        <v>2337500</v>
       </c>
       <c r="M2" s="10">
         <f>IFERROR(L2/J2,0)</f>
-        <v>14.665197524431845</v>
+        <v>2.1997796286647766</v>
       </c>
       <c r="N2" t="s">
         <v>9</v>
@@ -1135,11 +1135,11 @@
       </c>
       <c r="T2" s="9">
         <f>(R2/$G2)*$F2</f>
-        <v>3333333.3333333335</v>
+        <v>500000</v>
       </c>
       <c r="U2" s="10">
         <f t="shared" ref="U2:U14" si="0">IFERROR(T2/Q2,0)</f>
-        <v>6.5482791492373575</v>
+        <v>0.98224187238560356</v>
       </c>
       <c r="V2" t="s">
         <v>9</v>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="AB2" s="27">
         <f>(Z2/G2) * F2</f>
-        <v>1887180.083333333</v>
+        <v>283077.01250000001</v>
       </c>
       <c r="AC2" s="28">
         <f>IFERROR(AB2/Y2,0)</f>
-        <v>6.7875637490252867</v>
+        <v>1.0181345623537932</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="17.25" x14ac:dyDescent="0.4">
@@ -1187,11 +1187,11 @@
       </c>
       <c r="L3" s="9">
         <f>(K3/G2) * F2</f>
-        <v>20583333.333333336</v>
+        <v>3087500</v>
       </c>
       <c r="M3" s="10">
         <f>IFERROR(L3/J3,0)</f>
-        <v>15.942347720211361</v>
+        <v>2.3913521580317036</v>
       </c>
       <c r="N3" t="s">
         <v>13</v>
@@ -1213,11 +1213,11 @@
       </c>
       <c r="T3" s="9">
         <f>(R3/$G2)*$F2</f>
-        <v>3500000</v>
+        <v>525000</v>
       </c>
       <c r="U3" s="10">
         <f t="shared" si="0"/>
-        <v>31.181839839023304</v>
+        <v>4.6772759758534956</v>
       </c>
       <c r="V3" t="s">
         <v>9</v>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="AB3" s="27">
         <f>(Z3/G2) * F2</f>
-        <v>1943314.416666667</v>
+        <v>291497.16250000003</v>
       </c>
       <c r="AC3" s="28">
         <f t="shared" ref="AC3:AC10" si="1">IFERROR(AB3/Y3,0)</f>
-        <v>5.4015617540207312</v>
+        <v>0.81023426310310975</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1265,11 +1265,11 @@
       </c>
       <c r="L4" s="9">
         <f>(K4/G2) * F2</f>
-        <v>23666666.666666664</v>
+        <v>3550000</v>
       </c>
       <c r="M4" s="10">
         <f>IFERROR(L4/J4,0)</f>
-        <v>14.126521688522361</v>
+        <v>2.1189782532783545</v>
       </c>
       <c r="N4" t="s">
         <v>21</v>
@@ -1291,11 +1291,11 @@
       </c>
       <c r="T4" s="9">
         <f>(R4/$G2)*$F2</f>
-        <v>3583333.3333333335</v>
+        <v>537500</v>
       </c>
       <c r="U4" s="10">
         <f t="shared" si="0"/>
-        <v>46.355120584976618</v>
+        <v>6.9532680877464914</v>
       </c>
       <c r="V4" t="s">
         <v>9</v>
@@ -1317,11 +1317,11 @@
       </c>
       <c r="AB4" s="27">
         <f>(Z4/G2) * F2</f>
-        <v>2873119.416666667</v>
+        <v>430967.91250000003</v>
       </c>
       <c r="AC4" s="28">
         <f t="shared" si="1"/>
-        <v>9.28723518755368</v>
+        <v>1.3930852781330518</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="17.25" x14ac:dyDescent="0.4">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="L5" s="9">
         <f>(K5/G2) * F2</f>
-        <v>8059112.25</v>
+        <v>1208866.8374999999</v>
       </c>
       <c r="M5" s="10">
         <f>IFERROR(L5/J5,0)</f>
-        <v>39.15640928629972</v>
+        <v>5.8734613929449573</v>
       </c>
       <c r="N5" t="s">
         <v>9</v>
@@ -1369,11 +1369,11 @@
       </c>
       <c r="T5" s="9">
         <f>(R5/$G2)*$F2</f>
-        <v>3666666.6666666665</v>
+        <v>550000</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>15.695982181007807</v>
+        <v>2.3543973271511711</v>
       </c>
       <c r="V5" t="s">
         <v>9</v>
@@ -1395,11 +1395,11 @@
       </c>
       <c r="AB5" s="27">
         <f>(Z5/G2) * F2</f>
-        <v>1030186.3333333333</v>
+        <v>154527.95000000001</v>
       </c>
       <c r="AC5" s="28">
         <f>IFERROR(AB5/Y5,0)</f>
-        <v>9.7049853814088483</v>
+        <v>1.4557478072113277</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="17.25" x14ac:dyDescent="0.4">
@@ -1421,11 +1421,11 @@
       </c>
       <c r="L6" s="9">
         <f>(K6/G2) * F2</f>
-        <v>16040457.25</v>
+        <v>2406068.5875000004</v>
       </c>
       <c r="M6" s="10">
         <f>IFERROR(L6/J6,0)</f>
-        <v>7.9599637790287918</v>
+        <v>1.193994566854319</v>
       </c>
       <c r="N6" t="s">
         <v>9</v>
@@ -1447,11 +1447,11 @@
       </c>
       <c r="T6" s="9">
         <f>(R6/$G2)*$F2</f>
-        <v>3750000</v>
+        <v>562500</v>
       </c>
       <c r="U6" s="10">
         <f t="shared" si="0"/>
-        <v>15.566521766563609</v>
+        <v>2.3349782649845414</v>
       </c>
       <c r="V6" t="s">
         <v>9</v>
@@ -1473,11 +1473,11 @@
       </c>
       <c r="AB6" s="27">
         <f>(Z6/G2) * F2</f>
-        <v>2205863.75</v>
+        <v>330879.5625</v>
       </c>
       <c r="AC6" s="28">
         <f t="shared" si="1"/>
-        <v>8.6885188272059608</v>
+        <v>1.303277824080894</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1503,11 +1503,11 @@
       </c>
       <c r="T7" s="9">
         <f>(R7/$G2)*$F2</f>
-        <v>3833333.3333333335</v>
+        <v>575000</v>
       </c>
       <c r="U7" s="10">
         <f t="shared" si="0"/>
-        <v>10.218233296429517</v>
+        <v>1.5327349944644275</v>
       </c>
       <c r="V7" t="s">
         <v>9</v>
@@ -1529,11 +1529,11 @@
       </c>
       <c r="AB7" s="27">
         <f>(Z7/G2) * F2</f>
-        <v>1967154.75</v>
+        <v>295073.21250000002</v>
       </c>
       <c r="AC7" s="28">
         <f t="shared" si="1"/>
-        <v>8.3687890506562042</v>
+        <v>1.2553183575984308</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1559,11 +1559,11 @@
       </c>
       <c r="T8" s="9">
         <f>(R8/$G2)*$F2</f>
-        <v>3833333.3333333335</v>
+        <v>575000</v>
       </c>
       <c r="U8" s="10">
         <f t="shared" si="0"/>
-        <v>8.5079110440934329</v>
+        <v>1.276186656614015</v>
       </c>
       <c r="V8" t="s">
         <v>9</v>
@@ -1585,11 +1585,11 @@
       </c>
       <c r="AB8" s="27">
         <f>(Z8/G2) * F2</f>
-        <v>2044102.25</v>
+        <v>306615.33749999997</v>
       </c>
       <c r="AC8" s="28">
         <f t="shared" si="1"/>
-        <v>7.7468366802554183</v>
+        <v>1.1620255020383126</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1615,11 +1615,11 @@
       </c>
       <c r="T9" s="9">
         <f>(R9/$G2)*$F2</f>
-        <v>3916666.6666666665</v>
+        <v>587500</v>
       </c>
       <c r="U9" s="10">
         <f t="shared" si="0"/>
-        <v>26.276091683836135</v>
+        <v>3.9414137525754205</v>
       </c>
       <c r="V9" t="s">
         <v>9</v>
@@ -1641,11 +1641,11 @@
       </c>
       <c r="AB9" s="27">
         <f>(Z9/G2) * F2</f>
-        <v>2089536.25</v>
+        <v>313430.4375</v>
       </c>
       <c r="AC9" s="28">
         <f t="shared" si="1"/>
-        <v>9.9967422045900296</v>
+        <v>1.4995113306885046</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1671,11 +1671,11 @@
       </c>
       <c r="T10" s="9">
         <f>(R10/$G2)*$F2</f>
-        <v>4000000</v>
+        <v>600000</v>
       </c>
       <c r="U10" s="10">
         <f t="shared" si="0"/>
-        <v>17.355030071277543</v>
+        <v>2.6032545106916314</v>
       </c>
       <c r="V10" t="s">
         <v>13</v>
@@ -1697,11 +1697,11 @@
       </c>
       <c r="AB10" s="12">
         <f>(Z10/G2) * F2</f>
-        <v>309112.25</v>
+        <v>46366.837500000001</v>
       </c>
       <c r="AC10" s="28">
         <f t="shared" si="1"/>
-        <v>5.9729411946568352</v>
+        <v>0.89594117919852534</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1727,11 +1727,11 @@
       </c>
       <c r="T11" s="9">
         <f>(R11/$G2)*$F2</f>
-        <v>4083333.3333333335</v>
+        <v>612500</v>
       </c>
       <c r="U11" s="10">
         <f t="shared" si="0"/>
-        <v>14.30226070873014</v>
+        <v>2.1453391063095211</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1758,11 +1758,11 @@
       </c>
       <c r="T12" s="9">
         <f>(R12/$G2)*$F2</f>
-        <v>4166666.6666666665</v>
+        <v>625000</v>
       </c>
       <c r="U12" s="10">
         <f t="shared" si="0"/>
-        <v>15.529705842523812</v>
+        <v>2.3294558763785718</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1789,11 +1789,11 @@
       </c>
       <c r="T13" s="9">
         <f>(R13/$G2)*$F2</f>
-        <v>4250000</v>
+        <v>637500</v>
       </c>
       <c r="U13" s="10">
         <f>IFERROR(T13/Q13,0)</f>
-        <v>101.62224977314327</v>
+        <v>15.243337465971489</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1819,11 +1819,11 @@
       </c>
       <c r="T14" s="9">
         <f>(R14/$G2)*$F2</f>
-        <v>4333333.333333334</v>
+        <v>650000</v>
       </c>
       <c r="U14" s="10">
         <f t="shared" si="0"/>
-        <v>14.570947957516813</v>
+        <v>2.1856421936275217</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -1849,11 +1849,11 @@
       </c>
       <c r="T15" s="9">
         <f>(R15/$G2)*$F2</f>
-        <v>4333333.333333334</v>
+        <v>650000</v>
       </c>
       <c r="U15" s="22">
         <f>IFERROR(T15/Q15,0)</f>
-        <v>20.407579230503345</v>
+        <v>3.0611368845755011</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="T16" s="9">
         <f>(R16/$G2)*$F2</f>
-        <v>4333333.333333334</v>
+        <v>650000</v>
       </c>
       <c r="U16" s="22">
         <f>IFERROR(T16/Q16,0)</f>
-        <v>13.580476698341251</v>
+        <v>2.0370715047511871</v>
       </c>
     </row>
     <row r="17" spans="14:21" x14ac:dyDescent="0.25">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="T17" s="9">
         <f>(R17/$G2)*$F2</f>
-        <v>4333333.333333334</v>
+        <v>650000</v>
       </c>
       <c r="U17" s="22">
         <f>IFERROR(T17/Q17,0)</f>
-        <v>24.900217645140835</v>
+        <v>3.7350326467711246</v>
       </c>
     </row>
     <row r="18" spans="14:21" x14ac:dyDescent="0.25">
@@ -1935,11 +1935,11 @@
       </c>
       <c r="T18" s="38">
         <f>(R18/$G2)*$F2</f>
-        <v>4333333.333333334</v>
+        <v>650000</v>
       </c>
       <c r="U18" s="22">
         <f>IFERROR(T18/Q18,0)</f>
-        <v>21.004597550941483</v>
+        <v>3.1506896326412219</v>
       </c>
     </row>
     <row r="22" spans="14:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Teste Faturamento.xlsx
+++ b/Teste Faturamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucca.peixoto\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04C3583-76D3-426C-8DE5-EC8A459899EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA9D0FE-9593-4CC1-9865-20784253C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E49487A5-60F5-451E-8CC0-EC090C6FFE99}"/>
   </bookViews>
@@ -474,7 +474,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,25 +486,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -531,13 +519,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,10 +565,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -947,35 +962,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253B106B-B168-4082-A2F6-2485E0553775}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="54" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="40" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" style="40" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -986,19 +1000,19 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="46" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1007,64 +1021,64 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AB1" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1072,25 +1086,25 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="49">
         <v>11100000</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="45">
         <f>SUM(K2:K6)</f>
         <v>10071948.34</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="44">
         <f>(C2/G2) * F2</f>
         <v>12589935.425000001</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <f>IFERROR(D2/B2,0)</f>
         <v>1.1342284166666667</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="27">
         <v>25</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="28">
         <v>20</v>
       </c>
       <c r="H2" t="s">
@@ -1099,19 +1113,19 @@
       <c r="I2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="47">
         <f>SUM(Q10,Q9,Q2,Q17)</f>
         <v>1062606.44</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="48">
         <f>SUM(R2,R9:R10,R20,R17)</f>
         <v>1870000</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="48">
         <f>(K2/G2) * F2</f>
         <v>2337500</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="7">
         <f>IFERROR(L2/J2,0)</f>
         <v>2.1997796286647766</v>
       </c>
@@ -1124,20 +1138,20 @@
       <c r="P2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="52">
         <v>509039.59</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="48">
         <v>400000</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="14">
         <v>0</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="6">
         <f>(R2/$G2)*$F2</f>
         <v>500000</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="7">
         <f t="shared" ref="U2:U14" si="0">IFERROR(T2/Q2,0)</f>
         <v>0.98224187238560356</v>
       </c>
@@ -1147,49 +1161,49 @@
       <c r="W2" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="26">
+      <c r="Y2" s="57">
         <v>278034.96999999997</v>
       </c>
-      <c r="Z2" s="27">
+      <c r="Z2" s="58">
         <v>226461.61</v>
       </c>
-      <c r="AA2" s="27">
+      <c r="AA2" s="58">
         <v>0</v>
       </c>
-      <c r="AB2" s="27">
+      <c r="AB2" s="58">
         <f>(Z2/G2) * F2</f>
         <v>283077.01250000001</v>
       </c>
-      <c r="AC2" s="28">
+      <c r="AC2" s="22">
         <f>IFERROR(AB2/Y2,0)</f>
         <v>1.0181345623537932</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="49">
         <f>SUM(Q5,Q11,Q12,Q14,Q18)</f>
         <v>1291110.55</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="48">
         <f>SUM(R5,R11,R12,R14,R18,R19)</f>
         <v>2470000</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="48">
         <f>(K3/G2) * F2</f>
         <v>3087500</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="7">
         <f>IFERROR(L3/J3,0)</f>
         <v>2.3913521580317036</v>
       </c>
@@ -1202,20 +1216,20 @@
       <c r="P3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="52">
         <v>112244.82</v>
       </c>
-      <c r="R3" s="37">
+      <c r="R3" s="48">
         <v>420000</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="14">
         <v>0</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="6">
         <f>(R3/$G2)*$F2</f>
         <v>525000</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="7">
         <f t="shared" si="0"/>
         <v>4.6772759758534956</v>
       </c>
@@ -1228,46 +1242,46 @@
       <c r="X3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="26">
+      <c r="Y3" s="57">
         <v>359768.99</v>
       </c>
-      <c r="Z3" s="27">
+      <c r="Z3" s="58">
         <v>233197.73</v>
       </c>
-      <c r="AA3" s="27">
+      <c r="AA3" s="58">
         <v>0</v>
       </c>
-      <c r="AB3" s="27">
+      <c r="AB3" s="58">
         <f>(Z3/G2) * F2</f>
         <v>291497.16250000003</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="22">
         <f t="shared" ref="AC3:AC10" si="1">IFERROR(AB3/Y3,0)</f>
         <v>0.81023426310310975</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="40">
         <f>SUM(Q7,Q15:Q16,Q4,Q6,Q8)</f>
         <v>1675335.7400000002</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="48">
         <f>SUM(R6:R8,R15:R16,R4,R21)</f>
         <v>2840000</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="48">
         <f>(K4/G2) * F2</f>
         <v>3550000</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="7">
         <f>IFERROR(L4/J4,0)</f>
         <v>2.1189782532783545</v>
       </c>
@@ -1280,20 +1294,20 @@
       <c r="P4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="52">
         <v>77301.78</v>
       </c>
-      <c r="R4" s="37">
+      <c r="R4" s="48">
         <v>430000</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="14">
         <v>0</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="6">
         <f>(R4/$G2)*$F2</f>
         <v>537500</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="7">
         <f t="shared" si="0"/>
         <v>6.9532680877464914</v>
       </c>
@@ -1306,72 +1320,72 @@
       <c r="X4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="26">
+      <c r="Y4" s="57">
         <v>309362.19</v>
       </c>
-      <c r="Z4" s="27">
+      <c r="Z4" s="58">
         <v>344774.33</v>
       </c>
-      <c r="AA4" s="27">
+      <c r="AA4" s="58">
         <v>0</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AB4" s="58">
         <f>(Z4/G2) * F2</f>
         <v>430967.91250000003</v>
       </c>
-      <c r="AC4" s="28">
+      <c r="AC4" s="22">
         <f t="shared" si="1"/>
         <v>1.3930852781330518</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="49">
         <f>SUM(Q3:Q3,Q13,Y10)</f>
         <v>205818.47</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="48">
         <f>SUM(R3:R3,R13,Z10,R23)</f>
         <v>967093.47</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="48">
         <f>(K5/G2) * F2</f>
         <v>1208866.8374999999</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <f>IFERROR(L5/J5,0)</f>
         <v>5.8734613929449573</v>
       </c>
       <c r="N5" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="52">
         <v>233605.43</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="48">
         <v>440000</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="14">
         <v>0</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="6">
         <f>(R5/$G2)*$F2</f>
         <v>550000</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="7">
         <f t="shared" si="0"/>
         <v>2.3543973271511711</v>
       </c>
@@ -1384,46 +1398,46 @@
       <c r="X5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" s="26">
+      <c r="Y5" s="57">
         <v>106150.22</v>
       </c>
-      <c r="Z5" s="27">
+      <c r="Z5" s="58">
         <v>123622.36</v>
       </c>
-      <c r="AA5" s="27">
+      <c r="AA5" s="58">
         <v>0</v>
       </c>
-      <c r="AB5" s="27">
+      <c r="AB5" s="58">
         <f>(Z5/G2) * F2</f>
         <v>154527.95000000001</v>
       </c>
-      <c r="AC5" s="28">
+      <c r="AC5" s="22">
         <f>IFERROR(AB5/Y5,0)</f>
         <v>1.4557478072113277</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
       <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="49">
         <f>SUM(Y2:Y9)</f>
         <v>2015141.99</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="48">
         <f>SUM(Z2:Z9)</f>
         <v>1924854.87</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="48">
         <f>(K6/G2) * F2</f>
         <v>2406068.5875000004</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="7">
         <f>IFERROR(L6/J6,0)</f>
         <v>1.193994566854319</v>
       </c>
@@ -1436,20 +1450,20 @@
       <c r="P6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="52">
         <v>240901.6</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="48">
         <v>450000</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="14">
         <v>0</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="6">
         <f>(R6/$G2)*$F2</f>
         <v>562500</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="7">
         <f t="shared" si="0"/>
         <v>2.3349782649845414</v>
       </c>
@@ -1462,27 +1476,27 @@
       <c r="X6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Y6" s="26">
+      <c r="Y6" s="57">
         <v>253882.6</v>
       </c>
-      <c r="Z6" s="27">
+      <c r="Z6" s="58">
         <v>264703.65000000002</v>
       </c>
-      <c r="AA6" s="27">
+      <c r="AA6" s="58">
         <v>0</v>
       </c>
-      <c r="AB6" s="27">
+      <c r="AB6" s="58">
         <f>(Z6/G2) * F2</f>
         <v>330879.5625</v>
       </c>
-      <c r="AC6" s="28">
+      <c r="AC6" s="22">
         <f t="shared" si="1"/>
         <v>1.303277824080894</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
       <c r="N7" t="s">
         <v>9</v>
       </c>
@@ -1492,20 +1506,20 @@
       <c r="P7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="52">
         <v>375146.39</v>
       </c>
-      <c r="R7" s="37">
+      <c r="R7" s="48">
         <v>460000</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="14">
         <v>0</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="6">
         <f>(R7/$G2)*$F2</f>
         <v>575000</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="7">
         <f t="shared" si="0"/>
         <v>1.5327349944644275</v>
       </c>
@@ -1518,27 +1532,27 @@
       <c r="X7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="26">
+      <c r="Y7" s="57">
         <v>235058.47</v>
       </c>
-      <c r="Z7" s="27">
+      <c r="Z7" s="58">
         <v>236058.57</v>
       </c>
-      <c r="AA7" s="27">
+      <c r="AA7" s="58">
         <v>0</v>
       </c>
-      <c r="AB7" s="27">
+      <c r="AB7" s="58">
         <f>(Z7/G2) * F2</f>
         <v>295073.21250000002</v>
       </c>
-      <c r="AC7" s="28">
+      <c r="AC7" s="22">
         <f t="shared" si="1"/>
         <v>1.2553183575984308</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="N8" t="s">
         <v>9</v>
       </c>
@@ -1548,20 +1562,20 @@
       <c r="P8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="52">
         <v>450561.05</v>
       </c>
-      <c r="R8" s="37">
+      <c r="R8" s="48">
         <v>460000</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="14">
         <v>0</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="6">
         <f>(R8/$G2)*$F2</f>
         <v>575000</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="7">
         <f t="shared" si="0"/>
         <v>1.276186656614015</v>
       </c>
@@ -1574,27 +1588,27 @@
       <c r="X8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="26">
+      <c r="Y8" s="57">
         <v>263862.83</v>
       </c>
-      <c r="Z8" s="27">
+      <c r="Z8" s="58">
         <v>245292.27</v>
       </c>
-      <c r="AA8" s="27">
+      <c r="AA8" s="58">
         <v>0</v>
       </c>
-      <c r="AB8" s="27">
+      <c r="AB8" s="58">
         <f>(Z8/G2) * F2</f>
         <v>306615.33749999997</v>
       </c>
-      <c r="AC8" s="28">
+      <c r="AC8" s="22">
         <f t="shared" si="1"/>
         <v>1.1620255020383126</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
       <c r="N9" t="s">
         <v>9</v>
       </c>
@@ -1604,20 +1618,20 @@
       <c r="P9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="52">
         <v>149058.19</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="48">
         <v>470000</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="14">
         <v>0</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="6">
         <f>(R9/$G2)*$F2</f>
         <v>587500</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="7">
         <f t="shared" si="0"/>
         <v>3.9414137525754205</v>
       </c>
@@ -1630,27 +1644,27 @@
       <c r="X9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="26">
+      <c r="Y9" s="57">
         <v>209021.72</v>
       </c>
-      <c r="Z9" s="27">
+      <c r="Z9" s="58">
         <v>250744.35</v>
       </c>
-      <c r="AA9" s="27">
+      <c r="AA9" s="58">
         <v>0</v>
       </c>
-      <c r="AB9" s="27">
+      <c r="AB9" s="58">
         <f>(Z9/G2) * F2</f>
         <v>313430.4375</v>
       </c>
-      <c r="AC9" s="28">
+      <c r="AC9" s="22">
         <f t="shared" si="1"/>
         <v>1.4995113306885046</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="N10" t="s">
         <v>9</v>
       </c>
@@ -1660,20 +1674,20 @@
       <c r="P10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="52">
         <v>230480.73</v>
       </c>
-      <c r="R10" s="37">
+      <c r="R10" s="48">
         <v>480000</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="14">
         <v>0</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="6">
         <f>(R10/$G2)*$F2</f>
         <v>600000</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="7">
         <f t="shared" si="0"/>
         <v>2.6032545106916314</v>
       </c>
@@ -1683,30 +1697,30 @@
       <c r="W10" t="s">
         <v>14</v>
       </c>
-      <c r="X10" s="36" t="s">
+      <c r="X10" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="40">
         <v>51752.1</v>
       </c>
-      <c r="Z10" s="27">
+      <c r="Z10" s="58">
         <v>37093.47</v>
       </c>
-      <c r="AA10" s="27">
+      <c r="AA10" s="58">
         <v>0</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AB10" s="40">
         <f>(Z10/G2) * F2</f>
         <v>46366.837500000001</v>
       </c>
-      <c r="AC10" s="28">
+      <c r="AC10" s="22">
         <f t="shared" si="1"/>
         <v>0.89594117919852534</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
       <c r="N11" t="s">
         <v>9</v>
       </c>
@@ -1716,28 +1730,27 @@
       <c r="P11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="52">
         <v>285502.65000000002</v>
       </c>
-      <c r="R11" s="37">
+      <c r="R11" s="48">
         <v>490000</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="14">
         <v>0</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="6">
         <f>(R11/$G2)*$F2</f>
         <v>612500</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="7">
         <f t="shared" si="0"/>
         <v>2.1453391063095211</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="K12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
       <c r="N12" t="s">
         <v>9</v>
       </c>
@@ -1747,28 +1760,27 @@
       <c r="P12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="52">
         <v>268303</v>
       </c>
-      <c r="R12" s="37">
+      <c r="R12" s="48">
         <v>500000</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="14">
         <v>0</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="6">
         <f>(R12/$G2)*$F2</f>
         <v>625000</v>
       </c>
-      <c r="U12" s="10">
+      <c r="U12" s="7">
         <f t="shared" si="0"/>
         <v>2.3294558763785718</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="K13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
       <c r="N13" t="s">
         <v>13</v>
       </c>
@@ -1778,27 +1790,27 @@
       <c r="P13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="52">
         <v>41821.550000000003</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="48">
         <v>510000</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="14">
         <v>0</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="6">
         <f>(R13/$G2)*$F2</f>
         <v>637500</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="7">
         <f>IFERROR(T13/Q13,0)</f>
         <v>15.243337465971489</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="N14" t="s">
         <v>9</v>
       </c>
@@ -1808,27 +1820,27 @@
       <c r="P14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="52">
         <v>297395.43</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="48">
         <v>520000</v>
       </c>
-      <c r="S14" s="18">
+      <c r="S14" s="14">
         <v>0</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="6">
         <f>(R14/$G2)*$F2</f>
         <v>650000</v>
       </c>
-      <c r="U14" s="10">
+      <c r="U14" s="7">
         <f t="shared" si="0"/>
         <v>2.1856421936275217</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
       <c r="N15" t="s">
         <v>9</v>
       </c>
@@ -1838,27 +1850,27 @@
       <c r="P15" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="53">
         <v>212339.41</v>
       </c>
-      <c r="R15" s="37">
+      <c r="R15" s="48">
         <v>520000</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="14">
         <v>0</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="6">
         <f>(R15/$G2)*$F2</f>
         <v>650000</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="18">
         <f>IFERROR(T15/Q15,0)</f>
         <v>3.0611368845755011</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
       <c r="N16" t="s">
         <v>9</v>
       </c>
@@ -1868,20 +1880,20 @@
       <c r="P16" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="53">
         <v>319085.51</v>
       </c>
-      <c r="R16" s="37">
+      <c r="R16" s="48">
         <v>520000</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="14">
         <v>0</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="6">
         <f>(R16/$G2)*$F2</f>
         <v>650000</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="18">
         <f>IFERROR(T16/Q16,0)</f>
         <v>2.0370715047511871</v>
       </c>
@@ -1896,20 +1908,20 @@
       <c r="P17" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="20">
+      <c r="Q17" s="53">
         <v>174027.93</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="48">
         <v>520000</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="14">
         <v>0</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="6">
         <f>(R17/$G2)*$F2</f>
         <v>650000</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17" s="18">
         <f>IFERROR(T17/Q17,0)</f>
         <v>3.7350326467711246</v>
       </c>
@@ -1924,29 +1936,29 @@
       <c r="P18" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="53">
         <v>206304.04</v>
       </c>
-      <c r="R18" s="37">
+      <c r="R18" s="48">
         <v>520000</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18" s="14">
         <v>0</v>
       </c>
-      <c r="T18" s="38">
+      <c r="T18" s="32">
         <f>(R18/$G2)*$F2</f>
         <v>650000</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18" s="18">
         <f>IFERROR(T18/Q18,0)</f>
         <v>3.1506896326412219</v>
       </c>
     </row>
     <row r="22" spans="14:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S22" s="29"/>
+      <c r="S22" s="23"/>
     </row>
     <row r="23" spans="14:21" x14ac:dyDescent="0.25">
-      <c r="S23" s="31"/>
+      <c r="S23" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2:M6 U2:U18">
@@ -1980,22 +1992,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="42" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2003,20 +2015,20 @@
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="13">
         <v>409020.28</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="31">
         <v>471783.45</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="40">
         <f>+C2/$C$29</f>
         <v>8.0799935017994914E-2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="32">
         <f>+D2*$F$29</f>
         <v>509039.59061336797</v>
       </c>
@@ -2025,20 +2037,20 @@
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>93468.21</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="31">
         <v>104029.72</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="40">
         <f t="shared" ref="D3:D27" si="0">+C3/$C$29</f>
         <v>1.7816637306671539E-2</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="32">
         <f t="shared" ref="G3:G27" si="1">+D3*$F$29</f>
         <v>112244.81503203069</v>
       </c>
@@ -2047,42 +2059,42 @@
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>68443.94</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="31">
         <v>71644.13</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="40">
         <f t="shared" si="0"/>
         <v>1.2270123185586058E-2</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="32">
         <f t="shared" si="1"/>
         <v>77301.776069192158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="13">
         <v>274170.09000000003</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="31">
         <v>216508.06</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="40">
         <f t="shared" si="0"/>
         <v>3.708022648711426E-2</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="32">
         <f t="shared" si="1"/>
         <v>233605.42686881984</v>
       </c>
@@ -2091,20 +2103,20 @@
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="13">
         <v>213670.02</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="31">
         <v>223270.23</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="40">
         <f t="shared" si="0"/>
         <v>3.8238348707341857E-2</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="32">
         <f t="shared" si="1"/>
         <v>240901.59685625369</v>
       </c>
@@ -2113,20 +2125,20 @@
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="13">
         <v>406950.16</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="31">
         <v>347689.77</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="40">
         <f t="shared" si="0"/>
         <v>5.9547046049244837E-2</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="32">
         <f t="shared" si="1"/>
         <v>375146.39011024247</v>
       </c>
@@ -2135,20 +2147,20 @@
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="13">
         <v>427264.27</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="31">
         <v>417584.9</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="40">
         <f t="shared" si="0"/>
         <v>7.1517626963166908E-2</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="32">
         <f t="shared" si="1"/>
         <v>450561.04986795154</v>
       </c>
@@ -2157,20 +2169,20 @@
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="13">
         <v>126634.43</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="31">
         <v>138148.76</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="40">
         <f t="shared" si="0"/>
         <v>2.3660030530567734E-2</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="32">
         <f t="shared" si="1"/>
         <v>149058.19234257672</v>
       </c>
@@ -2179,20 +2191,20 @@
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>236410.11</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="31">
         <v>213612.06</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="40">
         <f t="shared" si="0"/>
         <v>3.6584243400356736E-2</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="32">
         <f t="shared" si="1"/>
         <v>230480.73342224743</v>
       </c>
@@ -2201,20 +2213,20 @@
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="13">
         <v>262741.15000000002</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="31">
         <v>264606.96999999997</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="40">
         <f t="shared" si="0"/>
         <v>4.5317880441351911E-2</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="32">
         <f t="shared" si="1"/>
         <v>285502.64678051707</v>
       </c>
@@ -2223,20 +2235,20 @@
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="13">
         <v>245752.23</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="31">
         <v>248666.15</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="40">
         <f t="shared" si="0"/>
         <v>4.2587777848449276E-2</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="32">
         <f t="shared" si="1"/>
         <v>268303.00044523046</v>
       </c>
@@ -2245,20 +2257,20 @@
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <v>61149.25</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="31">
         <v>38760.67</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="40">
         <f t="shared" si="0"/>
         <v>6.6383414196787638E-3</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="32">
         <f t="shared" si="1"/>
         <v>41821.55094397621</v>
       </c>
@@ -2267,20 +2279,20 @@
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="13">
         <v>313310.19</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="31">
         <v>275629.33</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="40">
         <f t="shared" si="0"/>
         <v>4.7205623582288608E-2</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="32">
         <f t="shared" si="1"/>
         <v>297395.42856841825</v>
       </c>
@@ -2289,20 +2301,20 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <v>167888.82</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="31">
         <v>196798.48</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="40">
         <f t="shared" si="0"/>
         <v>3.3704667672509861E-2</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="32">
         <f t="shared" si="1"/>
         <v>212339.40633681213</v>
       </c>
@@ -2311,20 +2323,20 @@
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <v>279747.43</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="31">
         <v>295731.93</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="40">
         <f t="shared" si="0"/>
         <v>5.0648492919253996E-2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="32">
         <f t="shared" si="1"/>
         <v>319085.50539130019</v>
       </c>
@@ -2333,20 +2345,20 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <v>166834.78</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="31">
         <v>161290.99</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="40">
         <f t="shared" si="0"/>
         <v>2.7623481728721231E-2</v>
       </c>
       <c r="F17" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="32">
         <f t="shared" si="1"/>
         <v>174027.93489094375</v>
       </c>
@@ -2355,42 +2367,42 @@
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="16">
         <v>199650.55</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>191204.84</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="40">
         <f t="shared" si="0"/>
         <v>3.2746673600199658E-2</v>
       </c>
       <c r="F18" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="32">
         <f t="shared" si="1"/>
         <v>206304.04368125784</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="8">
         <v>278034.96999999997</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <v>226461.61</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="40">
         <f t="shared" si="0"/>
         <v>3.8784920013770104E-2</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="32">
         <f t="shared" si="1"/>
         <v>244344.99608675166</v>
       </c>
@@ -2399,20 +2411,20 @@
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="8">
         <v>359768.99</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="21">
         <v>233197.73</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="40">
         <f t="shared" si="0"/>
         <v>3.9938580783925176E-2</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="32">
         <f t="shared" si="1"/>
         <v>251613.05893872862</v>
       </c>
@@ -2421,20 +2433,20 @@
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="8">
         <v>309362.19</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="21">
         <v>344774.33</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="40">
         <f t="shared" si="0"/>
         <v>5.9047733573258529E-2</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="32">
         <f t="shared" si="1"/>
         <v>372000.72151152871</v>
       </c>
@@ -2443,20 +2455,20 @@
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="8">
         <v>106150.22</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="21">
         <v>123622.36</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="40">
         <f t="shared" si="0"/>
         <v>2.1172168406439807E-2</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="32">
         <f t="shared" si="1"/>
         <v>133384.66096057079</v>
       </c>
@@ -2465,20 +2477,20 @@
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="8">
         <v>253882.6</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="21">
         <v>264703.65000000002</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="40">
         <f t="shared" si="0"/>
         <v>4.533443832975928E-2</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="32">
         <f t="shared" si="1"/>
         <v>285606.96147748345</v>
       </c>
@@ -2487,20 +2499,20 @@
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="8">
         <v>235058.47</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <v>236058.57</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="40">
         <f t="shared" si="0"/>
         <v>4.0428542197571374E-2</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="32">
         <f t="shared" si="1"/>
         <v>254699.81584469965</v>
       </c>
@@ -2509,20 +2521,20 @@
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="8">
         <v>263862.83</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="21">
         <v>245292.27</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="40">
         <f t="shared" si="0"/>
         <v>4.2009950701781637E-2</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="32">
         <f t="shared" si="1"/>
         <v>264662.68942122429</v>
       </c>
@@ -2531,64 +2543,64 @@
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="8">
         <v>209021.72</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="21">
         <v>250744.35</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="40">
         <f t="shared" si="0"/>
         <v>4.2943700517958767E-2</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="32">
         <f t="shared" si="1"/>
         <v>270545.31326314021</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="8">
         <v>51752.1</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="21">
         <v>37093.47</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="40">
         <f t="shared" si="0"/>
         <v>6.3528086150371407E-3</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="32">
         <f t="shared" si="1"/>
         <v>40022.694274733985</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="17">
         <v>6300000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="12">
+      <c r="C29" s="8">
         <v>5838908.7800000003</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="17">
         <v>6300000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="47"/>
+      <c r="F30" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2612,15 +2624,15 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="39" t="s">
+    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="34" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2628,24 +2640,24 @@
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="35">
         <v>282981.19</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="31">
         <v>364324.58</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="39">
         <f>MEDIAN(B2:C2)</f>
         <v>323652.88500000001</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="40">
         <f>+D2/$D$29</f>
         <v>6.8170046380641003E-2</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="17">
         <f>+E2*$F$31</f>
         <v>409020.27828384604</v>
       </c>
@@ -2654,24 +2666,24 @@
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="35">
         <v>59582.74</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="31">
         <v>79435.27</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="39">
         <f t="shared" ref="D3:D27" si="0">MEDIAN(B3:C3)</f>
         <v>69509.005000000005</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="40">
         <f t="shared" ref="E3:E28" si="1">+D3/$D$29</f>
         <v>1.4640475380660389E-2</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="17">
         <f t="shared" ref="H3:H28" si="2">+E3*$F$31</f>
         <v>87842.852283962333</v>
       </c>
@@ -2680,50 +2692,50 @@
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="35">
         <v>40250.339999999997</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="31">
         <v>68067.42</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="39">
         <f t="shared" si="0"/>
         <v>54158.879999999997</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="40">
         <f t="shared" si="1"/>
         <v>1.1407324119862458E-2</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="17">
         <f t="shared" si="2"/>
         <v>68443.944719174746</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="36">
         <v>202775.76</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="31">
         <v>219249.98</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="39">
         <f t="shared" si="0"/>
         <v>211012.87</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="40">
         <f t="shared" si="1"/>
         <v>4.4445014401191481E-2</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="17">
         <f t="shared" si="2"/>
         <v>266670.08640714886</v>
       </c>
@@ -2732,24 +2744,24 @@
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="35">
         <v>160934</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="31">
         <v>177215.1</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="39">
         <f t="shared" si="0"/>
         <v>169074.55</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="40">
         <f t="shared" si="1"/>
         <v>3.5611670556516144E-2</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="17">
         <f t="shared" si="2"/>
         <v>213670.02333909686</v>
       </c>
@@ -2758,24 +2770,24 @@
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="35">
         <v>297002.83</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="31">
         <v>347026.82</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="39">
         <f t="shared" si="0"/>
         <v>322014.82500000001</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="40">
         <f t="shared" si="1"/>
         <v>6.7825026665540147E-2</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="17">
         <f t="shared" si="2"/>
         <v>406950.1599932409</v>
       </c>
@@ -2784,24 +2796,24 @@
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="35">
         <v>283114.93</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="31">
         <v>393063.35</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="39">
         <f t="shared" si="0"/>
         <v>338089.14</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="40">
         <f t="shared" si="1"/>
         <v>7.1210711916227881E-2</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="17">
         <f t="shared" si="2"/>
         <v>427264.2714973673</v>
       </c>
@@ -2810,24 +2822,24 @@
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="35">
         <v>71683.649999999994</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="31">
         <v>114484.35</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="39">
         <f t="shared" si="0"/>
         <v>93084</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="40">
         <f t="shared" si="1"/>
         <v>1.9606006593439102E-2</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="17">
         <f t="shared" si="2"/>
         <v>117636.03956063461</v>
       </c>
@@ -2836,24 +2848,24 @@
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="35">
         <v>161593.37</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="31">
         <v>212543.65</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="39">
         <f t="shared" si="0"/>
         <v>187068.51</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="40">
         <f t="shared" si="1"/>
         <v>3.9401684934949388E-2</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="17">
         <f t="shared" si="2"/>
         <v>236410.10960969632</v>
       </c>
@@ -2862,24 +2874,24 @@
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="35">
         <v>237983.01</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="31">
         <v>225302.18</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
         <v>231642.595</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="40">
         <f t="shared" si="1"/>
         <v>4.8790192137116405E-2</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="17">
         <f t="shared" si="2"/>
         <v>292741.15282269841</v>
       </c>
@@ -2888,25 +2900,25 @@
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="35">
         <f>81972.71+70013.19</f>
         <v>151985.90000000002</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="31">
         <v>225066.41</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="39">
         <f t="shared" si="0"/>
         <v>188526.15500000003</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="40">
         <f t="shared" si="1"/>
         <v>3.9708704374175181E-2</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="17">
         <f t="shared" si="2"/>
         <v>238252.22624505108</v>
       </c>
@@ -2915,24 +2927,24 @@
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="35">
         <v>42337.31</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="31">
         <v>49827.79</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="39">
         <f t="shared" si="0"/>
         <v>46082.55</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="40">
         <f t="shared" si="1"/>
         <v>9.706230707129981E-3</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="17">
         <f t="shared" si="2"/>
         <v>58237.384242779888</v>
       </c>
@@ -2941,24 +2953,24 @@
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="35">
         <v>220828.11</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="31">
         <v>263139.82</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="39">
         <f t="shared" si="0"/>
         <v>241983.965</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="40">
         <f t="shared" si="1"/>
         <v>5.0968364201114447E-2</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="17">
         <f t="shared" si="2"/>
         <v>305810.18520668667</v>
       </c>
@@ -2967,24 +2979,24 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="23">
         <v>126533.39</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="31">
         <v>139163.47</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="39">
         <f t="shared" si="0"/>
         <v>132848.43</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="40">
         <f t="shared" si="1"/>
         <v>2.7981470440763535E-2</v>
       </c>
       <c r="G15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="17">
         <f t="shared" si="2"/>
         <v>167888.8226445812</v>
       </c>
@@ -2993,24 +3005,24 @@
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="23">
         <v>174336.17</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="31">
         <v>268385.46999999997</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="39">
         <f t="shared" si="0"/>
         <v>221360.82</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="40">
         <f t="shared" si="1"/>
         <v>4.6624572391056322E-2</v>
       </c>
       <c r="G16" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="17">
         <f t="shared" si="2"/>
         <v>279747.43434633792</v>
       </c>
@@ -3019,24 +3031,24 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="23">
         <v>113157.25</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="31">
         <v>150871.5</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="39">
         <f t="shared" si="0"/>
         <v>132014.375</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="40">
         <f t="shared" si="1"/>
         <v>2.78057959120659E-2</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="17">
         <f t="shared" si="2"/>
         <v>166834.77547239538</v>
       </c>
@@ -3045,50 +3057,50 @@
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="23">
         <v>137376.89000000001</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>166716</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="39">
         <f t="shared" si="0"/>
         <v>152046.44500000001</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="40">
         <f t="shared" si="1"/>
         <v>3.2025091349522757E-2</v>
       </c>
       <c r="G18" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="17">
         <f t="shared" si="2"/>
         <v>192150.54809713655</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="37">
         <v>254077.24</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <v>185934.29</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="39">
         <f t="shared" si="0"/>
         <v>220005.76500000001</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="40">
         <f t="shared" si="1"/>
         <v>4.633916117898472E-2</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="17">
         <f t="shared" si="2"/>
         <v>278034.96707390831</v>
       </c>
@@ -3097,24 +3109,24 @@
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="35">
         <v>357712.18</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="21">
         <v>211649.67</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="39">
         <f t="shared" si="0"/>
         <v>284680.92499999999</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="40">
         <f t="shared" si="1"/>
         <v>5.9961498136912275E-2</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="17">
         <f t="shared" si="2"/>
         <v>359768.98882147367</v>
       </c>
@@ -3123,24 +3135,24 @@
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="35">
         <v>235041.5</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="21">
         <v>254547.75</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="39">
         <f t="shared" si="0"/>
         <v>244794.625</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="40">
         <f t="shared" si="1"/>
         <v>5.1560365173267723E-2</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="17">
         <f t="shared" si="2"/>
         <v>309362.19103960635</v>
       </c>
@@ -3149,24 +3161,24 @@
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="35">
         <v>89319.93</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="21">
         <v>78670.880000000005</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="39">
         <f t="shared" si="0"/>
         <v>83995.404999999999</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="40">
         <f t="shared" si="1"/>
         <v>1.7691702808738212E-2</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="17">
         <f t="shared" si="2"/>
         <v>106150.21685242926</v>
       </c>
@@ -3175,24 +3187,24 @@
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="35">
         <v>197098.61</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="21">
         <v>204689.96</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="39">
         <f t="shared" si="0"/>
         <v>200894.28499999997</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="40">
         <f t="shared" si="1"/>
         <v>4.2313766880390118E-2</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="17">
         <f t="shared" si="2"/>
         <v>253882.60128234071</v>
       </c>
@@ -3201,24 +3213,24 @@
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="35">
         <v>225750.62</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="21">
         <v>146247.32999999999</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="39">
         <f t="shared" si="0"/>
         <v>185998.97499999998</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="40">
         <f t="shared" si="1"/>
         <v>3.9176411952891094E-2</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="17">
         <f t="shared" si="2"/>
         <v>235058.47171734658</v>
       </c>
@@ -3227,24 +3239,24 @@
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="35">
         <v>193932.79</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="21">
         <v>223650.26</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="39">
         <f t="shared" si="0"/>
         <v>208791.52500000002</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="40">
         <f t="shared" si="1"/>
         <v>4.3977139098064173E-2</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="17">
         <f t="shared" si="2"/>
         <v>263862.83458838501</v>
       </c>
@@ -3253,84 +3265,84 @@
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="35">
         <v>134166.89000000001</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="21">
         <v>196625.92000000001</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="39">
         <f t="shared" si="0"/>
         <v>165396.40500000003</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="40">
         <f t="shared" si="1"/>
         <v>3.4836953794004602E-2</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="17">
         <f t="shared" si="2"/>
         <v>209021.72276402763</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="38">
         <v>33263.919999999998</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="21">
         <v>44737.64</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="39">
         <f t="shared" si="0"/>
         <v>39000.78</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="40">
         <f t="shared" si="1"/>
         <v>8.2146185147744816E-3</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="17">
         <f t="shared" si="2"/>
         <v>49287.711088646887</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46">
+      <c r="B28" s="23"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="32">
         <f>SUM(H2:H27)</f>
         <v>6000000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="12">
+      <c r="D29" s="8">
         <f>SUM(D2:D28)</f>
         <v>4747728.6900000004</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="40">
         <f>SUM(E2:E28)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="17">
         <f t="shared" ref="H29" si="3">+E29*6000000</f>
         <v>6000000.0000000009</v>
       </c>
@@ -3361,7 +3373,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
@@ -3372,7 +3384,7 @@
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="13">
         <v>409020.28</v>
       </c>
     </row>
@@ -3380,24 +3392,24 @@
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="13">
         <v>93468.21</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>68443.94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="13">
         <v>274170.09000000003</v>
       </c>
     </row>
@@ -3405,7 +3417,7 @@
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="13">
         <v>213670.02</v>
       </c>
     </row>
@@ -3413,7 +3425,7 @@
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="13">
         <v>406950.16</v>
       </c>
     </row>
@@ -3421,7 +3433,7 @@
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="13">
         <v>427264.27</v>
       </c>
     </row>
@@ -3429,7 +3441,7 @@
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="13">
         <v>126634.43</v>
       </c>
     </row>
@@ -3437,7 +3449,7 @@
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="13">
         <v>236410.11</v>
       </c>
     </row>
@@ -3445,7 +3457,7 @@
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="13">
         <v>262741.15000000002</v>
       </c>
     </row>
@@ -3453,7 +3465,7 @@
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="13">
         <v>245752.23</v>
       </c>
     </row>
@@ -3461,16 +3473,16 @@
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="13">
         <v>61149.25</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="13">
         <v>313310.19</v>
       </c>
     </row>
@@ -3478,7 +3490,7 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="16">
         <v>167888.82</v>
       </c>
     </row>
@@ -3486,7 +3498,7 @@
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="16">
         <v>279747.43</v>
       </c>
     </row>
@@ -3494,7 +3506,7 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="16">
         <v>166834.78</v>
       </c>
     </row>
@@ -3502,15 +3514,15 @@
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="16">
         <v>199650.55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="8">
         <v>278034.96999999997</v>
       </c>
     </row>
@@ -3518,7 +3530,7 @@
       <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="8">
         <v>359768.99</v>
       </c>
     </row>
@@ -3526,7 +3538,7 @@
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="8">
         <v>309362.19</v>
       </c>
     </row>
@@ -3534,7 +3546,7 @@
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="8">
         <v>106150.22</v>
       </c>
     </row>
@@ -3542,7 +3554,7 @@
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="8">
         <v>253882.6</v>
       </c>
     </row>
@@ -3550,7 +3562,7 @@
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="8">
         <v>235058.47</v>
       </c>
     </row>
@@ -3558,7 +3570,7 @@
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="8">
         <v>263862.83</v>
       </c>
     </row>
@@ -3566,20 +3578,20 @@
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="8">
         <v>209021.72</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="8">
         <v>51752.1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="21">
+      <c r="B28" s="17">
         <v>6010633.4000000004</v>
       </c>
     </row>

--- a/Teste Faturamento.xlsx
+++ b/Teste Faturamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucca.peixoto\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA9D0FE-9593-4CC1-9865-20784253C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04026089-D0E2-4F1C-B9AF-F6504409C43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E49487A5-60F5-451E-8CC0-EC090C6FFE99}"/>
   </bookViews>
@@ -122,10 +122,10 @@
     <t>Devolução (Promotores)</t>
   </si>
   <si>
+    <t>Tendência</t>
+  </si>
+  <si>
     <t>Tendência (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tendência </t>
   </si>
   <si>
     <t>Localidade_Vendodor</t>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253B106B-B168-4082-A2F6-2485E0553775}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,10 +1004,10 @@
         <v>72</v>
       </c>
       <c r="D1" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>2</v>

--- a/Teste Faturamento.xlsx
+++ b/Teste Faturamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucca.peixoto\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04026089-D0E2-4F1C-B9AF-F6504409C43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E714A4-E236-49DF-9FA8-E611F05E38A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E49487A5-60F5-451E-8CC0-EC090C6FFE99}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>Devolução (Promotores)</t>
   </si>
   <si>
-    <t>Tendência</t>
-  </si>
-  <si>
     <t>Tendência (%)</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Real_Gerente</t>
+  </si>
+  <si>
+    <t>Tendência_Gerente</t>
   </si>
 </sst>
 </file>
@@ -565,9 +565,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,6 +597,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -963,14 +963,14 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -982,7 +982,7 @@
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="53" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1000,14 +1000,14 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>2</v>
@@ -1028,13 +1028,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="N1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>16</v>
@@ -1042,20 +1042,20 @@
       <c r="P1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="50" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="T1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="V1" s="19" t="s">
         <v>22</v>
@@ -1064,36 +1064,36 @@
         <v>23</v>
       </c>
       <c r="X1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="55" t="s">
+      <c r="Z1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="AA1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="55" t="s">
+      <c r="AB1" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="AC1" s="19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="17.25" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="48">
         <v>11100000</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="44">
         <f>SUM(K2:K6)</f>
         <v>10071948.34</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="58">
         <f>(C2/G2) * F2</f>
         <v>12589935.425000001</v>
       </c>
@@ -1111,17 +1111,17 @@
         <v>9</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="47">
+        <v>60</v>
+      </c>
+      <c r="J2" s="46">
         <f>SUM(Q10,Q9,Q2,Q17)</f>
         <v>1062606.44</v>
       </c>
-      <c r="K2" s="48">
+      <c r="K2" s="47">
         <f>SUM(R2,R9:R10,R20,R17)</f>
         <v>1870000</v>
       </c>
-      <c r="L2" s="48">
+      <c r="L2" s="47">
         <f>(K2/G2) * F2</f>
         <v>2337500</v>
       </c>
@@ -1133,15 +1133,15 @@
         <v>9</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="52">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="51">
         <v>509039.59</v>
       </c>
-      <c r="R2" s="48">
+      <c r="R2" s="47">
         <v>400000</v>
       </c>
       <c r="S2" s="14">
@@ -1162,18 +1162,18 @@
         <v>10</v>
       </c>
       <c r="X2" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="57">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="56">
         <v>278034.96999999997</v>
       </c>
-      <c r="Z2" s="58">
+      <c r="Z2" s="57">
         <v>226461.61</v>
       </c>
-      <c r="AA2" s="58">
+      <c r="AA2" s="57">
         <v>0</v>
       </c>
-      <c r="AB2" s="58">
+      <c r="AB2" s="57">
         <f>(Z2/G2) * F2</f>
         <v>283077.01250000001</v>
       </c>
@@ -1191,15 +1191,15 @@
       <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="48">
         <f>SUM(Q5,Q11,Q12,Q14,Q18)</f>
         <v>1291110.55</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="47">
         <f>SUM(R5,R11,R12,R14,R18,R19)</f>
         <v>2470000</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="47">
         <f>(K3/G2) * F2</f>
         <v>3087500</v>
       </c>
@@ -1214,12 +1214,12 @@
         <v>14</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="52">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="51">
         <v>112244.82</v>
       </c>
-      <c r="R3" s="48">
+      <c r="R3" s="47">
         <v>420000</v>
       </c>
       <c r="S3" s="14">
@@ -1240,18 +1240,18 @@
         <v>10</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" s="57">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="56">
         <v>359768.99</v>
       </c>
-      <c r="Z3" s="58">
+      <c r="Z3" s="57">
         <v>233197.73</v>
       </c>
-      <c r="AA3" s="58">
+      <c r="AA3" s="57">
         <v>0</v>
       </c>
-      <c r="AB3" s="58">
+      <c r="AB3" s="57">
         <f>(Z3/G2) * F2</f>
         <v>291497.16250000003</v>
       </c>
@@ -1273,11 +1273,11 @@
         <f>SUM(Q7,Q15:Q16,Q4,Q6,Q8)</f>
         <v>1675335.7400000002</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="47">
         <f>SUM(R6:R8,R15:R16,R4,R21)</f>
         <v>2840000</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="47">
         <f>(K4/G2) * F2</f>
         <v>3550000</v>
       </c>
@@ -1292,12 +1292,12 @@
         <v>12</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="52">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="51">
         <v>77301.78</v>
       </c>
-      <c r="R4" s="48">
+      <c r="R4" s="47">
         <v>430000</v>
       </c>
       <c r="S4" s="14">
@@ -1318,18 +1318,18 @@
         <v>10</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y4" s="57">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="56">
         <v>309362.19</v>
       </c>
-      <c r="Z4" s="58">
+      <c r="Z4" s="57">
         <v>344774.33</v>
       </c>
-      <c r="AA4" s="58">
+      <c r="AA4" s="57">
         <v>0</v>
       </c>
-      <c r="AB4" s="58">
+      <c r="AB4" s="57">
         <f>(Z4/G2) * F2</f>
         <v>430967.91250000003</v>
       </c>
@@ -1347,15 +1347,15 @@
       <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="48">
         <f>SUM(Q3:Q3,Q13,Y10)</f>
         <v>205818.47</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="47">
         <f>SUM(R3:R3,R13,Z10,R23)</f>
         <v>967093.47</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="47">
         <f>(K5/G2) * F2</f>
         <v>1208866.8374999999</v>
       </c>
@@ -1370,12 +1370,12 @@
         <v>11</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="52">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="51">
         <v>233605.43</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="47">
         <v>440000</v>
       </c>
       <c r="S5" s="14">
@@ -1396,18 +1396,18 @@
         <v>10</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y5" s="57">
+        <v>52</v>
+      </c>
+      <c r="Y5" s="56">
         <v>106150.22</v>
       </c>
-      <c r="Z5" s="58">
+      <c r="Z5" s="57">
         <v>123622.36</v>
       </c>
-      <c r="AA5" s="58">
+      <c r="AA5" s="57">
         <v>0</v>
       </c>
-      <c r="AB5" s="58">
+      <c r="AB5" s="57">
         <f>(Z5/G2) * F2</f>
         <v>154527.95000000001</v>
       </c>
@@ -1425,15 +1425,15 @@
       <c r="I6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="48">
         <f>SUM(Y2:Y9)</f>
         <v>2015141.99</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="47">
         <f>SUM(Z2:Z9)</f>
         <v>1924854.87</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="47">
         <f>(K6/G2) * F2</f>
         <v>2406068.5875000004</v>
       </c>
@@ -1448,12 +1448,12 @@
         <v>12</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="52">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="51">
         <v>240901.6</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="47">
         <v>450000</v>
       </c>
       <c r="S6" s="14">
@@ -1474,18 +1474,18 @@
         <v>10</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y6" s="57">
+        <v>33</v>
+      </c>
+      <c r="Y6" s="56">
         <v>253882.6</v>
       </c>
-      <c r="Z6" s="58">
+      <c r="Z6" s="57">
         <v>264703.65000000002</v>
       </c>
-      <c r="AA6" s="58">
+      <c r="AA6" s="57">
         <v>0</v>
       </c>
-      <c r="AB6" s="58">
+      <c r="AB6" s="57">
         <f>(Z6/G2) * F2</f>
         <v>330879.5625</v>
       </c>
@@ -1504,12 +1504,12 @@
         <v>12</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="52">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="51">
         <v>375146.39</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="47">
         <v>460000</v>
       </c>
       <c r="S7" s="14">
@@ -1530,18 +1530,18 @@
         <v>10</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y7" s="57">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="56">
         <v>235058.47</v>
       </c>
-      <c r="Z7" s="58">
+      <c r="Z7" s="57">
         <v>236058.57</v>
       </c>
-      <c r="AA7" s="58">
+      <c r="AA7" s="57">
         <v>0</v>
       </c>
-      <c r="AB7" s="58">
+      <c r="AB7" s="57">
         <f>(Z7/G2) * F2</f>
         <v>295073.21250000002</v>
       </c>
@@ -1560,12 +1560,12 @@
         <v>12</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="52">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="51">
         <v>450561.05</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="47">
         <v>460000</v>
       </c>
       <c r="S8" s="14">
@@ -1586,18 +1586,18 @@
         <v>10</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y8" s="57">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="56">
         <v>263862.83</v>
       </c>
-      <c r="Z8" s="58">
+      <c r="Z8" s="57">
         <v>245292.27</v>
       </c>
-      <c r="AA8" s="58">
+      <c r="AA8" s="57">
         <v>0</v>
       </c>
-      <c r="AB8" s="58">
+      <c r="AB8" s="57">
         <f>(Z8/G2) * F2</f>
         <v>306615.33749999997</v>
       </c>
@@ -1613,15 +1613,15 @@
         <v>9</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="52">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="51">
         <v>149058.19</v>
       </c>
-      <c r="R9" s="48">
+      <c r="R9" s="47">
         <v>470000</v>
       </c>
       <c r="S9" s="14">
@@ -1642,18 +1642,18 @@
         <v>10</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y9" s="57">
+        <v>55</v>
+      </c>
+      <c r="Y9" s="56">
         <v>209021.72</v>
       </c>
-      <c r="Z9" s="58">
+      <c r="Z9" s="57">
         <v>250744.35</v>
       </c>
-      <c r="AA9" s="58">
+      <c r="AA9" s="57">
         <v>0</v>
       </c>
-      <c r="AB9" s="58">
+      <c r="AB9" s="57">
         <f>(Z9/G2) * F2</f>
         <v>313430.4375</v>
       </c>
@@ -1669,15 +1669,15 @@
         <v>9</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="52">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="51">
         <v>230480.73</v>
       </c>
-      <c r="R10" s="48">
+      <c r="R10" s="47">
         <v>480000</v>
       </c>
       <c r="S10" s="14">
@@ -1698,15 +1698,15 @@
         <v>14</v>
       </c>
       <c r="X10" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y10" s="40">
         <v>51752.1</v>
       </c>
-      <c r="Z10" s="58">
+      <c r="Z10" s="57">
         <v>37093.47</v>
       </c>
-      <c r="AA10" s="58">
+      <c r="AA10" s="57">
         <v>0</v>
       </c>
       <c r="AB10" s="40">
@@ -1728,12 +1728,12 @@
         <v>11</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="52">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="51">
         <v>285502.65000000002</v>
       </c>
-      <c r="R11" s="48">
+      <c r="R11" s="47">
         <v>490000</v>
       </c>
       <c r="S11" s="14">
@@ -1758,12 +1758,12 @@
         <v>11</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q12" s="52">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="51">
         <v>268303</v>
       </c>
-      <c r="R12" s="48">
+      <c r="R12" s="47">
         <v>500000</v>
       </c>
       <c r="S12" s="14">
@@ -1788,12 +1788,12 @@
         <v>14</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="52">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="51">
         <v>41821.550000000003</v>
       </c>
-      <c r="R13" s="48">
+      <c r="R13" s="47">
         <v>510000</v>
       </c>
       <c r="S13" s="14">
@@ -1818,12 +1818,12 @@
         <v>11</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="52">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="51">
         <v>297395.43</v>
       </c>
-      <c r="R14" s="48">
+      <c r="R14" s="47">
         <v>520000</v>
       </c>
       <c r="S14" s="14">
@@ -1848,12 +1848,12 @@
         <v>12</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" s="53">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="52">
         <v>212339.41</v>
       </c>
-      <c r="R15" s="48">
+      <c r="R15" s="47">
         <v>520000</v>
       </c>
       <c r="S15" s="14">
@@ -1878,12 +1878,12 @@
         <v>12</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q16" s="53">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="52">
         <v>319085.51</v>
       </c>
-      <c r="R16" s="48">
+      <c r="R16" s="47">
         <v>520000</v>
       </c>
       <c r="S16" s="14">
@@ -1903,15 +1903,15 @@
         <v>9</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="53">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="52">
         <v>174027.93</v>
       </c>
-      <c r="R17" s="48">
+      <c r="R17" s="47">
         <v>520000</v>
       </c>
       <c r="S17" s="14">
@@ -1928,18 +1928,18 @@
     </row>
     <row r="18" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O18" t="s">
         <v>11</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q18" s="53">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="52">
         <v>206304.04</v>
       </c>
-      <c r="R18" s="48">
+      <c r="R18" s="47">
         <v>520000</v>
       </c>
       <c r="S18" s="14">
@@ -1972,6 +1972,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2002,18 +2003,18 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="13">
         <v>409020.28</v>
@@ -2026,7 +2027,7 @@
         <v>8.0799935017994914E-2</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="32">
         <f>+D2*$F$29</f>
@@ -2035,7 +2036,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="13">
         <v>93468.21</v>
@@ -2048,7 +2049,7 @@
         <v>1.7816637306671539E-2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="32">
         <f t="shared" ref="G3:G27" si="1">+D3*$F$29</f>
@@ -2057,7 +2058,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="13">
         <v>68443.94</v>
@@ -2070,7 +2071,7 @@
         <v>1.2270123185586058E-2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="32">
         <f t="shared" si="1"/>
@@ -2079,7 +2080,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="13">
         <v>274170.09000000003</v>
@@ -2092,7 +2093,7 @@
         <v>3.708022648711426E-2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="32">
         <f t="shared" si="1"/>
@@ -2101,7 +2102,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="13">
         <v>213670.02</v>
@@ -2114,7 +2115,7 @@
         <v>3.8238348707341857E-2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="32">
         <f t="shared" si="1"/>
@@ -2123,7 +2124,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="13">
         <v>406950.16</v>
@@ -2136,7 +2137,7 @@
         <v>5.9547046049244837E-2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="1"/>
@@ -2145,7 +2146,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="13">
         <v>427264.27</v>
@@ -2158,7 +2159,7 @@
         <v>7.1517626963166908E-2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="32">
         <f t="shared" si="1"/>
@@ -2167,7 +2168,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="13">
         <v>126634.43</v>
@@ -2180,7 +2181,7 @@
         <v>2.3660030530567734E-2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="32">
         <f t="shared" si="1"/>
@@ -2189,7 +2190,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="13">
         <v>236410.11</v>
@@ -2202,7 +2203,7 @@
         <v>3.6584243400356736E-2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="32">
         <f t="shared" si="1"/>
@@ -2211,7 +2212,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="13">
         <v>262741.15000000002</v>
@@ -2224,7 +2225,7 @@
         <v>4.5317880441351911E-2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="32">
         <f t="shared" si="1"/>
@@ -2233,7 +2234,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="13">
         <v>245752.23</v>
@@ -2246,7 +2247,7 @@
         <v>4.2587777848449276E-2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="32">
         <f t="shared" si="1"/>
@@ -2255,7 +2256,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="13">
         <v>61149.25</v>
@@ -2268,7 +2269,7 @@
         <v>6.6383414196787638E-3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="32">
         <f t="shared" si="1"/>
@@ -2277,7 +2278,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="13">
         <v>313310.19</v>
@@ -2290,7 +2291,7 @@
         <v>4.7205623582288608E-2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="32">
         <f t="shared" si="1"/>
@@ -2299,7 +2300,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="16">
         <v>167888.82</v>
@@ -2312,7 +2313,7 @@
         <v>3.3704667672509861E-2</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="32">
         <f t="shared" si="1"/>
@@ -2321,7 +2322,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="16">
         <v>279747.43</v>
@@ -2334,7 +2335,7 @@
         <v>5.0648492919253996E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="32">
         <f t="shared" si="1"/>
@@ -2343,7 +2344,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="16">
         <v>166834.78</v>
@@ -2356,7 +2357,7 @@
         <v>2.7623481728721231E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="32">
         <f t="shared" si="1"/>
@@ -2365,7 +2366,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="16">
         <v>199650.55</v>
@@ -2378,7 +2379,7 @@
         <v>3.2746673600199658E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="32">
         <f t="shared" si="1"/>
@@ -2387,7 +2388,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="8">
         <v>278034.96999999997</v>
@@ -2400,7 +2401,7 @@
         <v>3.8784920013770104E-2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="32">
         <f t="shared" si="1"/>
@@ -2409,7 +2410,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8">
         <v>359768.99</v>
@@ -2422,7 +2423,7 @@
         <v>3.9938580783925176E-2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="32">
         <f t="shared" si="1"/>
@@ -2431,7 +2432,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="8">
         <v>309362.19</v>
@@ -2444,7 +2445,7 @@
         <v>5.9047733573258529E-2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="32">
         <f t="shared" si="1"/>
@@ -2453,7 +2454,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="8">
         <v>106150.22</v>
@@ -2466,7 +2467,7 @@
         <v>2.1172168406439807E-2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="32">
         <f t="shared" si="1"/>
@@ -2475,7 +2476,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="8">
         <v>253882.6</v>
@@ -2488,7 +2489,7 @@
         <v>4.533443832975928E-2</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="32">
         <f t="shared" si="1"/>
@@ -2497,7 +2498,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="8">
         <v>235058.47</v>
@@ -2510,7 +2511,7 @@
         <v>4.0428542197571374E-2</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="32">
         <f t="shared" si="1"/>
@@ -2519,7 +2520,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="8">
         <v>263862.83</v>
@@ -2532,7 +2533,7 @@
         <v>4.2009950701781637E-2</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="32">
         <f t="shared" si="1"/>
@@ -2541,7 +2542,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="8">
         <v>209021.72</v>
@@ -2554,7 +2555,7 @@
         <v>4.2943700517958767E-2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" s="32">
         <f t="shared" si="1"/>
@@ -2563,7 +2564,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="8">
         <v>51752.1</v>
@@ -2576,7 +2577,7 @@
         <v>6.3528086150371407E-3</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="32">
         <f t="shared" si="1"/>
@@ -2585,7 +2586,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F28" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="17">
         <v>6300000</v>
@@ -2630,15 +2631,15 @@
   <sheetData>
     <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G1" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>58</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="35">
         <v>282981.19</v>
@@ -2655,7 +2656,7 @@
         <v>6.8170046380641003E-2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="17">
         <f>+E2*$F$31</f>
@@ -2664,7 +2665,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="35">
         <v>59582.74</v>
@@ -2681,7 +2682,7 @@
         <v>1.4640475380660389E-2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ref="H3:H28" si="2">+E3*$F$31</f>
@@ -2690,7 +2691,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="35">
         <v>40250.339999999997</v>
@@ -2707,7 +2708,7 @@
         <v>1.1407324119862458E-2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="17">
         <f t="shared" si="2"/>
@@ -2716,7 +2717,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="36">
         <v>202775.76</v>
@@ -2733,7 +2734,7 @@
         <v>4.4445014401191481E-2</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" si="2"/>
@@ -2742,7 +2743,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="35">
         <v>160934</v>
@@ -2759,7 +2760,7 @@
         <v>3.5611670556516144E-2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" si="2"/>
@@ -2768,7 +2769,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="35">
         <v>297002.83</v>
@@ -2785,7 +2786,7 @@
         <v>6.7825026665540147E-2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="2"/>
@@ -2794,7 +2795,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="35">
         <v>283114.93</v>
@@ -2811,7 +2812,7 @@
         <v>7.1210711916227881E-2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="2"/>
@@ -2820,7 +2821,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="35">
         <v>71683.649999999994</v>
@@ -2837,7 +2838,7 @@
         <v>1.9606006593439102E-2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="2"/>
@@ -2846,7 +2847,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="35">
         <v>161593.37</v>
@@ -2863,7 +2864,7 @@
         <v>3.9401684934949388E-2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="2"/>
@@ -2872,7 +2873,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="35">
         <v>237983.01</v>
@@ -2889,7 +2890,7 @@
         <v>4.8790192137116405E-2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="2"/>
@@ -2898,7 +2899,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="35">
         <f>81972.71+70013.19</f>
@@ -2916,7 +2917,7 @@
         <v>3.9708704374175181E-2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="2"/>
@@ -2925,7 +2926,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="35">
         <v>42337.31</v>
@@ -2942,7 +2943,7 @@
         <v>9.706230707129981E-3</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="2"/>
@@ -2951,7 +2952,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="35">
         <v>220828.11</v>
@@ -2968,7 +2969,7 @@
         <v>5.0968364201114447E-2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="2"/>
@@ -2977,7 +2978,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="23">
         <v>126533.39</v>
@@ -2994,7 +2995,7 @@
         <v>2.7981470440763535E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="2"/>
@@ -3003,7 +3004,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="23">
         <v>174336.17</v>
@@ -3020,7 +3021,7 @@
         <v>4.6624572391056322E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="2"/>
@@ -3029,7 +3030,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="23">
         <v>113157.25</v>
@@ -3046,7 +3047,7 @@
         <v>2.78057959120659E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="2"/>
@@ -3055,7 +3056,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="23">
         <v>137376.89000000001</v>
@@ -3072,7 +3073,7 @@
         <v>3.2025091349522757E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="2"/>
@@ -3081,7 +3082,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="37">
         <v>254077.24</v>
@@ -3098,7 +3099,7 @@
         <v>4.633916117898472E-2</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="2"/>
@@ -3107,7 +3108,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="35">
         <v>357712.18</v>
@@ -3124,7 +3125,7 @@
         <v>5.9961498136912275E-2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="2"/>
@@ -3133,7 +3134,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="35">
         <v>235041.5</v>
@@ -3150,7 +3151,7 @@
         <v>5.1560365173267723E-2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="2"/>
@@ -3159,7 +3160,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="35">
         <v>89319.93</v>
@@ -3176,7 +3177,7 @@
         <v>1.7691702808738212E-2</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="2"/>
@@ -3185,7 +3186,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="35">
         <v>197098.61</v>
@@ -3202,7 +3203,7 @@
         <v>4.2313766880390118E-2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="2"/>
@@ -3211,7 +3212,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="35">
         <v>225750.62</v>
@@ -3228,7 +3229,7 @@
         <v>3.9176411952891094E-2</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="2"/>
@@ -3237,7 +3238,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="35">
         <v>193932.79</v>
@@ -3254,7 +3255,7 @@
         <v>4.3977139098064173E-2</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="2"/>
@@ -3263,7 +3264,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="35">
         <v>134166.89000000001</v>
@@ -3280,7 +3281,7 @@
         <v>3.4836953794004602E-2</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="2"/>
@@ -3289,7 +3290,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="38">
         <v>33263.919999999998</v>
@@ -3306,7 +3307,7 @@
         <v>8.2146185147744816E-3</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="2"/>
@@ -3322,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="2"/>
@@ -3374,15 +3375,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="13">
         <v>409020.28</v>
@@ -3390,7 +3391,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="13">
         <v>93468.21</v>
@@ -3399,7 +3400,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="13">
         <v>68443.94</v>
@@ -3407,7 +3408,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="13">
         <v>274170.09000000003</v>
@@ -3415,7 +3416,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="13">
         <v>213670.02</v>
@@ -3423,7 +3424,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="13">
         <v>406950.16</v>
@@ -3431,7 +3432,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="13">
         <v>427264.27</v>
@@ -3439,7 +3440,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="13">
         <v>126634.43</v>
@@ -3447,7 +3448,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="13">
         <v>236410.11</v>
@@ -3455,7 +3456,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="13">
         <v>262741.15000000002</v>
@@ -3463,7 +3464,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="13">
         <v>245752.23</v>
@@ -3471,7 +3472,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="13">
         <v>61149.25</v>
@@ -3480,7 +3481,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="13">
         <v>313310.19</v>
@@ -3488,7 +3489,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="16">
         <v>167888.82</v>
@@ -3496,7 +3497,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="16">
         <v>279747.43</v>
@@ -3504,7 +3505,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="16">
         <v>166834.78</v>
@@ -3512,7 +3513,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="16">
         <v>199650.55</v>
@@ -3520,7 +3521,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="8">
         <v>278034.96999999997</v>
@@ -3528,7 +3529,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8">
         <v>359768.99</v>
@@ -3536,7 +3537,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="8">
         <v>309362.19</v>
@@ -3544,7 +3545,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="8">
         <v>106150.22</v>
@@ -3552,7 +3553,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="8">
         <v>253882.6</v>
@@ -3560,7 +3561,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="8">
         <v>235058.47</v>
@@ -3568,7 +3569,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="8">
         <v>263862.83</v>
@@ -3576,7 +3577,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="8">
         <v>209021.72</v>
@@ -3584,7 +3585,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="8">
         <v>51752.1</v>
